--- a/data/nzd0053/nzd0053.xlsx
+++ b/data/nzd0053/nzd0053.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O506"/>
+  <dimension ref="A1:O518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23832,6 +23832,592 @@
         </is>
       </c>
     </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>364.9728571428572</v>
+      </c>
+      <c r="C507" t="n">
+        <v>343.23</v>
+      </c>
+      <c r="D507" t="n">
+        <v>347.9572727272728</v>
+      </c>
+      <c r="E507" t="n">
+        <v>361.13</v>
+      </c>
+      <c r="F507" t="n">
+        <v>361.42</v>
+      </c>
+      <c r="G507" t="n">
+        <v>369.1472727272728</v>
+      </c>
+      <c r="H507" t="n">
+        <v>362.8314285714285</v>
+      </c>
+      <c r="I507" t="n">
+        <v>367.2672727272728</v>
+      </c>
+      <c r="J507" t="n">
+        <v>378.2272727272728</v>
+      </c>
+      <c r="K507" t="n">
+        <v>387.72</v>
+      </c>
+      <c r="L507" t="n">
+        <v>384.23</v>
+      </c>
+      <c r="M507" t="n">
+        <v>384.13</v>
+      </c>
+      <c r="N507" t="n">
+        <v>376.3615384615384</v>
+      </c>
+      <c r="O507" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>375.9485714285714</v>
+      </c>
+      <c r="C508" t="n">
+        <v>358.2177777777778</v>
+      </c>
+      <c r="D508" t="n">
+        <v>362.6818181818182</v>
+      </c>
+      <c r="E508" t="n">
+        <v>365.4633333333333</v>
+      </c>
+      <c r="F508" t="n">
+        <v>378.0833333333333</v>
+      </c>
+      <c r="G508" t="n">
+        <v>383.7118181818182</v>
+      </c>
+      <c r="H508" t="n">
+        <v>373.2642857142857</v>
+      </c>
+      <c r="I508" t="n">
+        <v>381.3118181818182</v>
+      </c>
+      <c r="J508" t="n">
+        <v>389.5218181818182</v>
+      </c>
+      <c r="K508" t="n">
+        <v>392.54</v>
+      </c>
+      <c r="L508" t="n">
+        <v>397.2377777777778</v>
+      </c>
+      <c r="M508" t="n">
+        <v>404.0077777777778</v>
+      </c>
+      <c r="N508" t="inlineStr"/>
+      <c r="O508" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>355.4985714285714</v>
+      </c>
+      <c r="C509" t="n">
+        <v>339.5577777777777</v>
+      </c>
+      <c r="D509" t="n">
+        <v>345.1018181818182</v>
+      </c>
+      <c r="E509" t="n">
+        <v>353.3733333333333</v>
+      </c>
+      <c r="F509" t="n">
+        <v>361.6633333333333</v>
+      </c>
+      <c r="G509" t="n">
+        <v>363.9718181818182</v>
+      </c>
+      <c r="H509" t="n">
+        <v>357.0142857142857</v>
+      </c>
+      <c r="I509" t="n">
+        <v>362.9818181818182</v>
+      </c>
+      <c r="J509" t="n">
+        <v>370.0518181818182</v>
+      </c>
+      <c r="K509" t="n">
+        <v>381.01</v>
+      </c>
+      <c r="L509" t="n">
+        <v>379.5477777777778</v>
+      </c>
+      <c r="M509" t="n">
+        <v>378.5077777777778</v>
+      </c>
+      <c r="N509" t="n">
+        <v>367.9223076923077</v>
+      </c>
+      <c r="O509" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>356.2185714285715</v>
+      </c>
+      <c r="C510" t="n">
+        <v>345.6155555555555</v>
+      </c>
+      <c r="D510" t="n">
+        <v>353.170909090909</v>
+      </c>
+      <c r="E510" t="n">
+        <v>359.7866666666667</v>
+      </c>
+      <c r="F510" t="n">
+        <v>362.2566666666667</v>
+      </c>
+      <c r="G510" t="n">
+        <v>372.3409090909091</v>
+      </c>
+      <c r="H510" t="n">
+        <v>361.6942857142857</v>
+      </c>
+      <c r="I510" t="n">
+        <v>374.240909090909</v>
+      </c>
+      <c r="J510" t="n">
+        <v>372.3209090909091</v>
+      </c>
+      <c r="K510" t="n">
+        <v>382.78</v>
+      </c>
+      <c r="L510" t="n">
+        <v>389.3455555555556</v>
+      </c>
+      <c r="M510" t="n">
+        <v>386.0255555555556</v>
+      </c>
+      <c r="N510" t="n">
+        <v>376.2846153846153</v>
+      </c>
+      <c r="O510" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr"/>
+      <c r="C511" t="inlineStr"/>
+      <c r="D511" t="inlineStr"/>
+      <c r="E511" t="inlineStr"/>
+      <c r="F511" t="inlineStr"/>
+      <c r="G511" t="inlineStr"/>
+      <c r="H511" t="inlineStr"/>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>379.74</v>
+      </c>
+      <c r="L511" t="inlineStr"/>
+      <c r="M511" t="inlineStr"/>
+      <c r="N511" t="inlineStr"/>
+      <c r="O511" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>364.2042857142857</v>
+      </c>
+      <c r="C512" t="n">
+        <v>359.4566666666667</v>
+      </c>
+      <c r="D512" t="n">
+        <v>355.6427272727273</v>
+      </c>
+      <c r="E512" t="n">
+        <v>363.1</v>
+      </c>
+      <c r="F512" t="n">
+        <v>366.76</v>
+      </c>
+      <c r="G512" t="n">
+        <v>372.0327272727272</v>
+      </c>
+      <c r="H512" t="n">
+        <v>374.1671428571429</v>
+      </c>
+      <c r="I512" t="n">
+        <v>373.7927272727272</v>
+      </c>
+      <c r="J512" t="n">
+        <v>383.0127272727273</v>
+      </c>
+      <c r="K512" t="n">
+        <v>392.08</v>
+      </c>
+      <c r="L512" t="n">
+        <v>386.0566666666667</v>
+      </c>
+      <c r="M512" t="n">
+        <v>387.0566666666667</v>
+      </c>
+      <c r="N512" t="n">
+        <v>394.3923076923077</v>
+      </c>
+      <c r="O512" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>369.0028571428572</v>
+      </c>
+      <c r="C513" t="n">
+        <v>361.3077777777777</v>
+      </c>
+      <c r="D513" t="n">
+        <v>362.8163636363636</v>
+      </c>
+      <c r="E513" t="n">
+        <v>371.8433333333333</v>
+      </c>
+      <c r="F513" t="n">
+        <v>379.5633333333333</v>
+      </c>
+      <c r="G513" t="n">
+        <v>379.8063636363637</v>
+      </c>
+      <c r="H513" t="n">
+        <v>378.5514285714286</v>
+      </c>
+      <c r="I513" t="n">
+        <v>376.9563636363636</v>
+      </c>
+      <c r="J513" t="n">
+        <v>391.0663636363636</v>
+      </c>
+      <c r="K513" t="n">
+        <v>393.15</v>
+      </c>
+      <c r="L513" t="n">
+        <v>393.0377777777778</v>
+      </c>
+      <c r="M513" t="n">
+        <v>399.4377777777778</v>
+      </c>
+      <c r="N513" t="n">
+        <v>390.1238461538462</v>
+      </c>
+      <c r="O513" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>359.8014285714286</v>
+      </c>
+      <c r="C514" t="n">
+        <v>352.0588888888889</v>
+      </c>
+      <c r="D514" t="n">
+        <v>358.7109090909091</v>
+      </c>
+      <c r="E514" t="n">
+        <v>360.0466666666667</v>
+      </c>
+      <c r="F514" t="n">
+        <v>366.5366666666667</v>
+      </c>
+      <c r="G514" t="n">
+        <v>370.4509090909091</v>
+      </c>
+      <c r="H514" t="n">
+        <v>371.3157142857143</v>
+      </c>
+      <c r="I514" t="n">
+        <v>374.1509090909091</v>
+      </c>
+      <c r="J514" t="n">
+        <v>384.3809090909091</v>
+      </c>
+      <c r="K514" t="n">
+        <v>385.35</v>
+      </c>
+      <c r="L514" t="n">
+        <v>386.7188888888889</v>
+      </c>
+      <c r="M514" t="n">
+        <v>385.4288888888889</v>
+      </c>
+      <c r="N514" t="n">
+        <v>385.5707692307692</v>
+      </c>
+      <c r="O514" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>365.7271428571429</v>
+      </c>
+      <c r="C515" t="n">
+        <v>356.0055555555556</v>
+      </c>
+      <c r="D515" t="n">
+        <v>356.4945454545455</v>
+      </c>
+      <c r="E515" t="n">
+        <v>367.4766666666667</v>
+      </c>
+      <c r="F515" t="n">
+        <v>370.4966666666666</v>
+      </c>
+      <c r="G515" t="n">
+        <v>378.0245454545454</v>
+      </c>
+      <c r="H515" t="n">
+        <v>365.9685714285715</v>
+      </c>
+      <c r="I515" t="n">
+        <v>375.2045454545454</v>
+      </c>
+      <c r="J515" t="n">
+        <v>389.1045454545454</v>
+      </c>
+      <c r="K515" t="n">
+        <v>387.36</v>
+      </c>
+      <c r="L515" t="n">
+        <v>391.5955555555556</v>
+      </c>
+      <c r="M515" t="n">
+        <v>394.6355555555555</v>
+      </c>
+      <c r="N515" t="n">
+        <v>392.03</v>
+      </c>
+      <c r="O515" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>361.2142857142857</v>
+      </c>
+      <c r="C516" t="n">
+        <v>353.3</v>
+      </c>
+      <c r="D516" t="n">
+        <v>353.9645454545454</v>
+      </c>
+      <c r="E516" t="n">
+        <v>360.18</v>
+      </c>
+      <c r="F516" t="n">
+        <v>366.62</v>
+      </c>
+      <c r="G516" t="n">
+        <v>368.5545454545455</v>
+      </c>
+      <c r="H516" t="n">
+        <v>370.8371428571429</v>
+      </c>
+      <c r="I516" t="n">
+        <v>368.5945454545454</v>
+      </c>
+      <c r="J516" t="n">
+        <v>380.5145454545454</v>
+      </c>
+      <c r="K516" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="L516" t="n">
+        <v>384.48</v>
+      </c>
+      <c r="M516" t="n">
+        <v>389.49</v>
+      </c>
+      <c r="N516" t="n">
+        <v>393.7815384615385</v>
+      </c>
+      <c r="O516" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>362.8957142857143</v>
+      </c>
+      <c r="C517" t="n">
+        <v>340.3277777777778</v>
+      </c>
+      <c r="D517" t="n">
+        <v>354.1690909090909</v>
+      </c>
+      <c r="E517" t="n">
+        <v>365.2333333333333</v>
+      </c>
+      <c r="F517" t="n">
+        <v>371.8433333333333</v>
+      </c>
+      <c r="G517" t="n">
+        <v>376.8390909090909</v>
+      </c>
+      <c r="H517" t="n">
+        <v>365.2728571428572</v>
+      </c>
+      <c r="I517" t="n">
+        <v>375.4190909090909</v>
+      </c>
+      <c r="J517" t="n">
+        <v>377.6690909090909</v>
+      </c>
+      <c r="K517" t="n">
+        <v>386.14</v>
+      </c>
+      <c r="L517" t="n">
+        <v>385.9577777777778</v>
+      </c>
+      <c r="M517" t="n">
+        <v>387.9977777777778</v>
+      </c>
+      <c r="N517" t="n">
+        <v>375.2230769230769</v>
+      </c>
+      <c r="O517" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>369.5928571428572</v>
+      </c>
+      <c r="C518" t="n">
+        <v>348.8411111111111</v>
+      </c>
+      <c r="D518" t="n">
+        <v>353.6027272727272</v>
+      </c>
+      <c r="E518" t="n">
+        <v>364.5833333333333</v>
+      </c>
+      <c r="F518" t="n">
+        <v>374.0533333333333</v>
+      </c>
+      <c r="G518" t="n">
+        <v>379.7627272727273</v>
+      </c>
+      <c r="H518" t="n">
+        <v>369.3014285714286</v>
+      </c>
+      <c r="I518" t="n">
+        <v>380.2327272727272</v>
+      </c>
+      <c r="J518" t="n">
+        <v>381.6027272727272</v>
+      </c>
+      <c r="K518" t="n">
+        <v>394.39</v>
+      </c>
+      <c r="L518" t="n">
+        <v>392.5711111111111</v>
+      </c>
+      <c r="M518" t="n">
+        <v>397.9211111111111</v>
+      </c>
+      <c r="N518" t="n">
+        <v>380.4153846153847</v>
+      </c>
+      <c r="O518" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23843,7 +24429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B523"/>
+  <dimension ref="A1:B535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29081,6 +29667,126 @@
       </c>
       <c r="B523" t="n">
         <v>-0.49</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -29249,28 +29955,28 @@
         <v>0.0359</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.14730700077175</v>
+        <v>-0.1577313343152132</v>
       </c>
       <c r="J2" t="n">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="K2" t="n">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008968593088010457</v>
+        <v>0.01074955422746093</v>
       </c>
       <c r="M2" t="n">
-        <v>8.863854121147481</v>
+        <v>8.764148010059804</v>
       </c>
       <c r="N2" t="n">
-        <v>128.9972846203374</v>
+        <v>126.5535804353433</v>
       </c>
       <c r="O2" t="n">
-        <v>11.35769715304724</v>
+        <v>11.24960356791933</v>
       </c>
       <c r="P2" t="n">
-        <v>369.9426780137034</v>
+        <v>370.0440456503523</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -29326,28 +30032,28 @@
         <v>0.0459</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1082781162146168</v>
+        <v>0.08079464835391981</v>
       </c>
       <c r="J3" t="n">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="K3" t="n">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005848117097009053</v>
+        <v>0.003373347528434656</v>
       </c>
       <c r="M3" t="n">
-        <v>7.823519038861797</v>
+        <v>7.810415514898346</v>
       </c>
       <c r="N3" t="n">
-        <v>105.7971536056615</v>
+        <v>105.1841674046371</v>
       </c>
       <c r="O3" t="n">
-        <v>10.28577433184598</v>
+        <v>10.25593327809016</v>
       </c>
       <c r="P3" t="n">
-        <v>353.491505582057</v>
+        <v>353.7615576395322</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -29403,28 +30109,28 @@
         <v>0.0615</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2671410280218514</v>
+        <v>0.2510381890276463</v>
       </c>
       <c r="J4" t="n">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="K4" t="n">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03644220903207684</v>
+        <v>0.0337050720645885</v>
       </c>
       <c r="M4" t="n">
-        <v>7.564882386751367</v>
+        <v>7.487842757865701</v>
       </c>
       <c r="N4" t="n">
-        <v>98.74425264291044</v>
+        <v>97.15547751813565</v>
       </c>
       <c r="O4" t="n">
-        <v>9.937014272049248</v>
+        <v>9.856747816502949</v>
       </c>
       <c r="P4" t="n">
-        <v>351.4481198734914</v>
+        <v>351.6071544327742</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -29480,28 +30186,28 @@
         <v>0.0664</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3121242183977999</v>
+        <v>0.3023299136019099</v>
       </c>
       <c r="J5" t="n">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="K5" t="n">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05770121293250619</v>
+        <v>0.05669771484063535</v>
       </c>
       <c r="M5" t="n">
-        <v>7.091915288021677</v>
+        <v>7.012227792063182</v>
       </c>
       <c r="N5" t="n">
-        <v>85.08176656108385</v>
+        <v>83.57444207971535</v>
       </c>
       <c r="O5" t="n">
-        <v>9.223977805756249</v>
+        <v>9.141905823170317</v>
       </c>
       <c r="P5" t="n">
-        <v>357.053666471978</v>
+        <v>357.1483246874451</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -29557,28 +30263,28 @@
         <v>0.0624</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2754224369620006</v>
+        <v>0.2761824013690332</v>
       </c>
       <c r="J6" t="n">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="K6" t="n">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04500955620601366</v>
+        <v>0.04706845894077394</v>
       </c>
       <c r="M6" t="n">
-        <v>7.194666671322093</v>
+        <v>7.145475970068101</v>
       </c>
       <c r="N6" t="n">
-        <v>87.25026117870895</v>
+        <v>85.97881883198204</v>
       </c>
       <c r="O6" t="n">
-        <v>9.3407848267</v>
+        <v>9.272476413126217</v>
       </c>
       <c r="P6" t="n">
-        <v>361.8828942576058</v>
+        <v>361.8752731454687</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -29634,28 +30340,28 @@
         <v>0.0571</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2396636473873685</v>
+        <v>0.23338729712722</v>
       </c>
       <c r="J7" t="n">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="K7" t="n">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03652042568406755</v>
+        <v>0.03611175322740068</v>
       </c>
       <c r="M7" t="n">
-        <v>6.909168646765986</v>
+        <v>6.866013322360273</v>
       </c>
       <c r="N7" t="n">
-        <v>81.53733424552196</v>
+        <v>80.3509086668906</v>
       </c>
       <c r="O7" t="n">
-        <v>9.029802558501595</v>
+        <v>8.963866836744653</v>
       </c>
       <c r="P7" t="n">
-        <v>369.3045844823919</v>
+        <v>369.3650033954438</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -29711,28 +30417,28 @@
         <v>0.0736</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2579332639006042</v>
+        <v>0.2412046574561874</v>
       </c>
       <c r="J8" t="n">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="K8" t="n">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03981898790524807</v>
+        <v>0.0363205303955032</v>
       </c>
       <c r="M8" t="n">
-        <v>6.74602977619951</v>
+        <v>6.709079617440191</v>
       </c>
       <c r="N8" t="n">
-        <v>84.93417109546873</v>
+        <v>83.99564096861592</v>
       </c>
       <c r="O8" t="n">
-        <v>9.215973692207934</v>
+        <v>9.16491358216846</v>
       </c>
       <c r="P8" t="n">
-        <v>365.1497082438019</v>
+        <v>365.3125944096328</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -29788,28 +30494,28 @@
         <v>0.0569</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2694846558733607</v>
+        <v>0.2677028759843254</v>
       </c>
       <c r="J9" t="n">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="K9" t="n">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04532480213063939</v>
+        <v>0.04667616317193013</v>
       </c>
       <c r="M9" t="n">
-        <v>6.904382310606362</v>
+        <v>6.829144115411351</v>
       </c>
       <c r="N9" t="n">
-        <v>81.19851988300623</v>
+        <v>79.83816081360543</v>
       </c>
       <c r="O9" t="n">
-        <v>9.011022133088245</v>
+        <v>8.935220244269608</v>
       </c>
       <c r="P9" t="n">
-        <v>367.1859461977299</v>
+        <v>367.2030611073675</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -29865,28 +30571,28 @@
         <v>0.0579</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2580348215924997</v>
+        <v>0.2559823555438598</v>
       </c>
       <c r="J10" t="n">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="K10" t="n">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04468669283916393</v>
+        <v>0.04564548872852459</v>
       </c>
       <c r="M10" t="n">
-        <v>6.616283313045445</v>
+        <v>6.582938696550758</v>
       </c>
       <c r="N10" t="n">
-        <v>74.90000673136807</v>
+        <v>74.04912439583202</v>
       </c>
       <c r="O10" t="n">
-        <v>8.654478998262579</v>
+        <v>8.605180090842493</v>
       </c>
       <c r="P10" t="n">
-        <v>375.4528948462882</v>
+        <v>375.473083593089</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -29942,28 +30648,28 @@
         <v>0.0548</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2079698451272911</v>
+        <v>0.2035943101996598</v>
       </c>
       <c r="J11" t="n">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="K11" t="n">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03107774036305955</v>
+        <v>0.03126113646216733</v>
       </c>
       <c r="M11" t="n">
-        <v>6.55215822090965</v>
+        <v>6.479860708083661</v>
       </c>
       <c r="N11" t="n">
-        <v>70.41081987008666</v>
+        <v>69.05270687760473</v>
       </c>
       <c r="O11" t="n">
-        <v>8.391115531923433</v>
+        <v>8.309795838503177</v>
       </c>
       <c r="P11" t="n">
-        <v>383.1102544944993</v>
+        <v>383.1534441986779</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -30019,28 +30725,28 @@
         <v>0.0504</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1963654178568817</v>
+        <v>0.2011821896403639</v>
       </c>
       <c r="J12" t="n">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="K12" t="n">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02402423795225972</v>
+        <v>0.02631465338779782</v>
       </c>
       <c r="M12" t="n">
-        <v>6.889992980664353</v>
+        <v>6.812604795725986</v>
       </c>
       <c r="N12" t="n">
-        <v>81.67825939408338</v>
+        <v>80.17199982388138</v>
       </c>
       <c r="O12" t="n">
-        <v>9.037602524678952</v>
+        <v>8.953881829903798</v>
       </c>
       <c r="P12" t="n">
-        <v>382.2910192052183</v>
+        <v>382.2428794596225</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -30096,28 +30802,28 @@
         <v>0.0458</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2001009033426156</v>
+        <v>0.2039072681315071</v>
       </c>
       <c r="J13" t="n">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="K13" t="n">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0240199663860754</v>
+        <v>0.02583546003923221</v>
       </c>
       <c r="M13" t="n">
-        <v>7.374046504600248</v>
+        <v>7.335900910879667</v>
       </c>
       <c r="N13" t="n">
-        <v>85.74958869376775</v>
+        <v>84.86768984001863</v>
       </c>
       <c r="O13" t="n">
-        <v>9.260107380250391</v>
+        <v>9.212366136884629</v>
       </c>
       <c r="P13" t="n">
-        <v>384.6036369671643</v>
+        <v>384.5655077423877</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -30173,28 +30879,28 @@
         <v>0.0742</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2876966837595508</v>
+        <v>0.2506148909462904</v>
       </c>
       <c r="J14" t="n">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="K14" t="n">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04212631053919125</v>
+        <v>0.03287816028597379</v>
       </c>
       <c r="M14" t="n">
-        <v>7.518042526775607</v>
+        <v>7.578481342998252</v>
       </c>
       <c r="N14" t="n">
-        <v>103.6072526268684</v>
+        <v>104.3136621097144</v>
       </c>
       <c r="O14" t="n">
-        <v>10.17876478885667</v>
+        <v>10.21340599945554</v>
       </c>
       <c r="P14" t="n">
-        <v>383.4694839519677</v>
+        <v>383.8278153771508</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -30231,7 +30937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O506"/>
+  <dimension ref="A1:O518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64329,6 +65035,878 @@
         </is>
       </c>
     </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>-35.02879413206426,173.91643643385436</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>-35.02926878333552,173.91570848414747</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>-35.02988655443159,173.91521254550548</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>-35.030561423984345,173.91482216244697</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>-35.03121728471182,173.91440994486</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>-35.031909508073994,173.9141327914758</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>-35.03261527482926,173.91389202636506</t>
+        </is>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>-35.03334450870627,173.91376136561482</t>
+        </is>
+      </c>
+      <c r="J507" t="inlineStr">
+        <is>
+          <t>-35.03408219944449,173.91366019783732</t>
+        </is>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>-35.03480503579558,173.91354599605904</t>
+        </is>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>-35.0355161982352,173.91338356513455</t>
+        </is>
+      </c>
+      <c r="M507" t="inlineStr">
+        <is>
+          <t>-35.03623371058229,173.91326861185476</t>
+        </is>
+      </c>
+      <c r="N507" t="inlineStr">
+        <is>
+          <t>-35.03695755991765,173.91317292679486</t>
+        </is>
+      </c>
+      <c r="O507" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>-35.02885261279145,173.9165334918467</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>-35.02934864167909,173.91584102102675</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>-35.029962957443026,173.91534454743723</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>-35.0305812637946,173.9148630843386</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>-35.031280970031794,173.91457538629624</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>-35.03194777534066,173.9142855195874</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>-35.03263313055782,173.9140043133958</t>
+        </is>
+      </c>
+      <c r="I508" t="inlineStr">
+        <is>
+          <t>-35.03337167279165,173.9139117411422</t>
+        </is>
+      </c>
+      <c r="J508" t="inlineStr">
+        <is>
+          <t>-35.03410627640955,173.91378050211088</t>
+        </is>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>-35.03481311665762,173.91359791345755</t>
+        </is>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>-35.03553125910051,173.91352498242722</t>
+        </is>
+      </c>
+      <c r="M508" t="inlineStr">
+        <is>
+          <t>-35.03624519940035,173.9134860758916</t>
+        </is>
+      </c>
+      <c r="N508" t="inlineStr"/>
+      <c r="O508" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>-35.02874365117411,173.9163526530713</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>-35.02924921686402,173.91567601073513</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>-35.02987173797563,173.9151869470854</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>-35.03052591068859,173.9147489123098</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>-35.03121821470514,173.91441236078634</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>-35.03189590990281,173.91407852016906</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>-35.032605318803135,173.9138294174863</t>
+        </is>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>-35.033336220009474,173.9137154810953</t>
+        </is>
+      </c>
+      <c r="J509" t="inlineStr">
+        <is>
+          <t>-35.034064771476,173.91357311671973</t>
+        </is>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>-35.0347937862595,173.9134737210246</t>
+        </is>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>-35.03551077695213,173.91333266120247</t>
+        </is>
+      </c>
+      <c r="M509" t="inlineStr">
+        <is>
+          <t>-35.036230461018995,173.91320710442844</t>
+        </is>
+      </c>
+      <c r="N509" t="inlineStr">
+        <is>
+          <t>-35.036957099430815,173.91308041173735</t>
+        </is>
+      </c>
+      <c r="O509" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>-35.02874748748028,173.91635902000297</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>-35.02928149413682,173.91572957959178</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>-35.02991360706759,173.91525928444645</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>-35.03055527364028,173.91480947666452</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>-35.0312204823599,173.91441825167544</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>-35.031917899134136,173.9141662808751</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>-35.03261332861454,173.91387978749668</t>
+        </is>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>-35.03335799670304,173.91383603261502</t>
+        </is>
+      </c>
+      <c r="J510" t="inlineStr">
+        <is>
+          <t>-35.03406960860111,173.91359728601108</t>
+        </is>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>-35.03479675372703,173.91349278612125</t>
+        </is>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>-35.035522121226165,173.91343918016386</t>
+        </is>
+      </c>
+      <c r="M510" t="inlineStr">
+        <is>
+          <t>-35.03623480617901,173.91328934933975</t>
+        </is>
+      </c>
+      <c r="N510" t="inlineStr">
+        <is>
+          <t>-35.03695755572067,173.91317208352572</t>
+        </is>
+      </c>
+      <c r="O510" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr"/>
+      <c r="C511" t="inlineStr"/>
+      <c r="D511" t="inlineStr"/>
+      <c r="E511" t="inlineStr"/>
+      <c r="F511" t="inlineStr"/>
+      <c r="G511" t="inlineStr"/>
+      <c r="H511" t="inlineStr"/>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>-35.03479165705777,173.91346004154926</t>
+        </is>
+      </c>
+      <c r="L511" t="inlineStr"/>
+      <c r="M511" t="inlineStr"/>
+      <c r="N511" t="inlineStr"/>
+      <c r="O511" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>-35.028790036964125,173.9164296373998</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>-35.029355242758704,173.91585197652938</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>-35.029926432888,173.9152814436865</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>-35.03057044346908,173.91484076616607</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>-35.031237693595166,173.91446296287228</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>-35.031917089408,173.91416304919068</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>-35.032634675783676,173.91401403069273</t>
+        </is>
+      </c>
+      <c r="I512" t="inlineStr">
+        <is>
+          <t>-35.03335712985755,173.91383123391384</t>
+        </is>
+      </c>
+      <c r="J512" t="inlineStr">
+        <is>
+          <t>-35.034092400774725,173.9137111702772</t>
+        </is>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>-35.034812345455975,173.9135929586847</t>
+        </is>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>-35.035518313224486,173.91340342419284</t>
+        </is>
+      </c>
+      <c r="M512" t="inlineStr">
+        <is>
+          <t>-35.03623540214102,173.91330062975385</t>
+        </is>
+      </c>
+      <c r="N512" t="inlineStr">
+        <is>
+          <t>-35.036958543530595,173.9133705890797</t>
+        </is>
+      </c>
+      <c r="O512" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>-35.02881560469254,173.9164720710369</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>-35.029365105894556,173.91586834592044</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>-35.02996365557445,173.91534575360532</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>-35.03061047407409,173.9149233339901</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>-35.031286626408345,173.91459008044683</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>-35.03193751406662,173.91424456582763</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>-35.032642179408896,173.91406121801455</t>
+        </is>
+      </c>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>-35.03336324876277,173.91386510710055</t>
+        </is>
+      </c>
+      <c r="J513" t="inlineStr">
+        <is>
+          <t>-35.03410956896006,173.9137969538999</t>
+        </is>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>-35.03481413933773,173.9136044839174</t>
+        </is>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>-35.035526396210024,173.91347932107692</t>
+        </is>
+      </c>
+      <c r="M513" t="inlineStr">
+        <is>
+          <t>-35.036242558098515,173.91343607982307</t>
+        </is>
+      </c>
+      <c r="N513" t="inlineStr">
+        <is>
+          <t>-35.03695831070696,173.91332379607576</t>
+        </is>
+      </c>
+      <c r="O513" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>-35.02876657766541,173.9163907030765</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>-35.02931582571395,173.91578655795755</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>-35.02994235312634,173.91530894918898</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>-35.03055646402957,173.9148119319771</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>-35.0312368400406,173.9144607455142</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>-35.031912933290116,173.91414646178487</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>-35.03262979560566,173.9139833412562</t>
+        </is>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>-35.03335782263065,173.91383506898129</t>
+        </is>
+      </c>
+      <c r="J514" t="inlineStr">
+        <is>
+          <t>-35.03409531737447,173.9137257435169</t>
+        </is>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>-35.03480106241744,173.9135204682131</t>
+        </is>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>-35.03551907997163,173.9134106237057</t>
+        </is>
+      </c>
+      <c r="M514" t="inlineStr">
+        <is>
+          <t>-35.03623446131689,173.91328282177264</t>
+        </is>
+      </c>
+      <c r="N514" t="inlineStr">
+        <is>
+          <t>-35.036958062339046,173.91327388297583</t>
+        </is>
+      </c>
+      <c r="O514" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>-35.02879815104691,173.91644310398138</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>-35.0293368544573,173.91582145833536</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>-35.02993085281851,173.91528908002792</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>-35.03059048167088,173.9148820972857</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>-35.03125197470361,173.91450006225833</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>-35.0319328324751,173.91422588115472</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>-35.03262064402826,173.9139257908843</t>
+        </is>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>-35.03335986050811,173.91384635030948</t>
+        </is>
+      </c>
+      <c r="J515" t="inlineStr">
+        <is>
+          <t>-35.034105386897295,173.91377605751362</t>
+        </is>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>-35.03480443224481,173.91354211841139</t>
+        </is>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>-35.03552472635636,173.91346364159853</t>
+        </is>
+      </c>
+      <c r="M515" t="inlineStr">
+        <is>
+          <t>-35.03623978255801,173.91338354323275</t>
+        </is>
+      </c>
+      <c r="N515" t="inlineStr">
+        <is>
+          <t>-35.03695841468053,173.91334469228477</t>
+        </is>
+      </c>
+      <c r="O515" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>-35.02877410565074,173.91640319692408</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>-35.02932243863914,173.9157975331026</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>-35.02991772510453,173.91526639919985</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>-35.03055707448559,173.9148131911118</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>-35.03123715853112,173.9144615728866</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>-35.03190795072276,173.91412657596604</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>-35.032628976536934,173.91397819047432</t>
+        </is>
+      </c>
+      <c r="I516" t="inlineStr">
+        <is>
+          <t>-35.033347075842585,173.91377557677455</t>
+        </is>
+      </c>
+      <c r="J516" t="inlineStr">
+        <is>
+          <t>-35.03408707531096,173.91368456080286</t>
+        </is>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>-35.03480634348846,173.91355439762907</t>
+        </is>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>-35.03551648769562,173.91338628307133</t>
+        </is>
+      </c>
+      <c r="M516" t="inlineStr">
+        <is>
+          <t>-35.03623680855584,173.91332725055918</t>
+        </is>
+      </c>
+      <c r="N516" t="inlineStr">
+        <is>
+          <t>-35.036958510217225,173.91336389352284</t>
+        </is>
+      </c>
+      <c r="O516" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>-35.02878306463658,173.91641806574265</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>-35.029253319607506,173.91568281983365</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>-35.029918786454196,173.9152682328993</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>-35.030580210758885,173.91486091233003</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>-35.03125712150525,173.91451343260218</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>-35.03192971778201,173.91421345012856</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>-35.032619453318745,173.9139183030329</t>
+        </is>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>-35.03336027546835,173.91384864745663</t>
+        </is>
+      </c>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>-35.034081009546284,173.91365425234457</t>
+        </is>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>-35.034802386877416,173.91352897749482</t>
+        </is>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>-35.03551819872699,173.9134023490978</t>
+        </is>
+      </c>
+      <c r="M517" t="inlineStr">
+        <is>
+          <t>-35.03623594608389,173.91331092556294</t>
+        </is>
+      </c>
+      <c r="N517" t="inlineStr">
+        <is>
+          <t>-35.03695749780158,173.9131604464116</t>
+        </is>
+      </c>
+      <c r="O517" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>-35.02881874832703,173.91647728839277</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>-35.02929868064974,173.91575810315814</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>-35.029915847694845,173.9152631555894</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>-35.03057723478814,173.91485477404518</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>-35.031265567862086,173.91453537453145</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>-35.03193739941543,173.9142441082438</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>-35.032626348180585,173.91396166184668</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>-35.03336958568788,173.91390018726793</t>
+        </is>
+      </c>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>-35.03408939502788,173.9136961516106</t>
+        </is>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>-35.03481621822735,173.9136178402625</t>
+        </is>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>-35.03552585588779,173.91347424759385</t>
+        </is>
+      </c>
+      <c r="M518" t="inlineStr">
+        <is>
+          <t>-35.036241681513104,173.91341948740123</t>
+        </is>
+      </c>
+      <c r="N518" t="inlineStr">
+        <is>
+          <t>-35.036957781090784,173.91321736707843</t>
+        </is>
+      </c>
+      <c r="O518" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0053/nzd0053.xlsx
+++ b/data/nzd0053/nzd0053.xlsx
@@ -29800,7 +29800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29891,35 +29891,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -29978,27 +29983,28 @@
       <c r="P2" t="n">
         <v>370.0440456503523</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.91320906544252 -35.02684944039043, 173.92140904031575 -35.03179008589999)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.9132090654425</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.02684944039043</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.9214090403158</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.03179008589999</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.9173090528791</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.02931976314521</v>
       </c>
     </row>
@@ -30055,27 +30061,28 @@
       <c r="P3" t="n">
         <v>353.7615576395322</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.9126733723127 -35.02743993358524, 173.92087336569045 -35.03238058931146)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.9126733723127</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.02743993358524</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.9208733656905</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.03238058931146</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.9167733690016</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.02991026144835</v>
       </c>
     </row>
@@ -30132,27 +30139,28 @@
       <c r="P4" t="n">
         <v>351.6071544327742</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.91209326508604 -35.0280810237102, 173.92040637182194 -35.03289253416096)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.912093265086</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.0280810237102</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.9204063718219</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.03289253416096</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.916249818454</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.03048677893558</v>
       </c>
     </row>
@@ -30209,27 +30217,28 @@
       <c r="P5" t="n">
         <v>357.1483246874451</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.91141189522466 -35.028907970183305, 173.92016994011718 -35.033153940733804)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.9114118952247</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.0289079701833</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.9201699401172</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.0331539407338</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.9157909176709</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.03103095545855</v>
       </c>
     </row>
@@ -30286,27 +30295,28 @@
       <c r="P6" t="n">
         <v>361.8752731454687</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.91082165873794 -35.029835922907246, 173.92003056265983 -35.03338071187379)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.9108216587379</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.02983592290725</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.9200305626598</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.03338071187379</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.9154261106989</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.03160831739052</v>
       </c>
     </row>
@@ -30363,27 +30373,28 @@
       <c r="P7" t="n">
         <v>369.3650033954438</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.91026185071436 -35.030939535901034, 173.91998956717075 -35.03337680645808)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.9102618507144</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.03093953590103</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.9199895671707</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.03337680645808</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.9151257089426</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.03215817117956</v>
       </c>
     </row>
@@ -30440,27 +30451,28 @@
       <c r="P8" t="n">
         <v>365.3125944096328</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.9099869636518 -35.03199422738933, 173.91997194659186 -35.0335819340085)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.9099869636518</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-35.03199422738933</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.9199719465919</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-35.0335819340085</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.9149794551218</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-35.03278808069892</v>
       </c>
     </row>
@@ -30517,27 +30529,28 @@
       <c r="P9" t="n">
         <v>367.2030611073675</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.90982905368415 -35.03263409646534, 173.9197620944561 -35.03442833099342)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.9098290536841</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-35.03263409646534</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.9197620944561</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-35.03442833099342</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.9147955740701</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-35.03353121372938</v>
       </c>
     </row>
@@ -30594,27 +30607,28 @@
       <c r="P10" t="n">
         <v>375.473083593089</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.9096315351744 -35.033275849991476, 173.91951289613786 -35.035253367445364)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.9096315351744</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-35.03327584999148</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.9195128961379</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-35.03525336744536</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.9145722156561</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-35.03426460871842</v>
       </c>
     </row>
@@ -30671,27 +30685,28 @@
       <c r="P11" t="n">
         <v>383.1534441986779</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (173.90936980103265 -35.0341549392748, 173.9193625151483 -35.03571021925771)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>173.9093698010327</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-35.0341549392748</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>173.9193625151483</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-35.03571021925771</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>173.9143661580905</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-35.03493257926625</v>
       </c>
     </row>
@@ -30748,27 +30763,28 @@
       <c r="P12" t="n">
         <v>382.2428794596225</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (173.9092063348389 -35.035071248423826, 173.91929254348878 -35.036145355697684)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>173.9092063348389</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-35.03507124842383</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>173.9192925434888</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-35.03614535569768</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>173.9142494391638</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-35.03560830206075</v>
       </c>
     </row>
@@ -30825,27 +30841,28 @@
       <c r="P13" t="n">
         <v>384.5655077423877</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (173.9090662177003 -35.03601161709225, 173.91921596298724 -35.03654777264003)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>173.9090662177003</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-35.03601161709225</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>173.9192159629872</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-35.03654777264003</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>173.9141410903438</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-35.03627969486614</v>
       </c>
     </row>
@@ -30902,27 +30919,28 @@
       <c r="P14" t="n">
         <v>383.8278153771508</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (173.90904706332208 -35.03693695514174, 173.91921765867033 -35.03698749419993)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>173.9090470633221</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-35.03693695514174</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>173.9192176586703</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-35.03698749419993</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>173.9141323609962</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-35.03696222467083</v>
       </c>
     </row>

--- a/data/nzd0053/nzd0053.xlsx
+++ b/data/nzd0053/nzd0053.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O518"/>
+  <dimension ref="A1:O522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24418,6 +24418,210 @@
         </is>
       </c>
     </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>381.9814285714286</v>
+      </c>
+      <c r="C519" t="n">
+        <v>370.7033333333333</v>
+      </c>
+      <c r="D519" t="n">
+        <v>368.1472727272728</v>
+      </c>
+      <c r="E519" t="n">
+        <v>383.62</v>
+      </c>
+      <c r="F519" t="n">
+        <v>381</v>
+      </c>
+      <c r="G519" t="n">
+        <v>392.3372727272728</v>
+      </c>
+      <c r="H519" t="n">
+        <v>375.1957142857143</v>
+      </c>
+      <c r="I519" t="n">
+        <v>389.9072727272728</v>
+      </c>
+      <c r="J519" t="n">
+        <v>403.2872727272728</v>
+      </c>
+      <c r="K519" t="n">
+        <v>404.87</v>
+      </c>
+      <c r="L519" t="n">
+        <v>408.7833333333333</v>
+      </c>
+      <c r="M519" t="n">
+        <v>410.4633333333333</v>
+      </c>
+      <c r="N519" t="n">
+        <v>405.6484615384616</v>
+      </c>
+      <c r="O519" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>362.2628571428572</v>
+      </c>
+      <c r="C520" t="n">
+        <v>357.1455555555555</v>
+      </c>
+      <c r="D520" t="n">
+        <v>357.7309090909091</v>
+      </c>
+      <c r="E520" t="n">
+        <v>363.9066666666667</v>
+      </c>
+      <c r="F520" t="n">
+        <v>367.0466666666667</v>
+      </c>
+      <c r="G520" t="n">
+        <v>371.0009090909091</v>
+      </c>
+      <c r="H520" t="n">
+        <v>375.3114285714286</v>
+      </c>
+      <c r="I520" t="n">
+        <v>370.8109090909091</v>
+      </c>
+      <c r="J520" t="n">
+        <v>381.360909090909</v>
+      </c>
+      <c r="K520" t="n">
+        <v>389.62</v>
+      </c>
+      <c r="L520" t="n">
+        <v>395.1555555555556</v>
+      </c>
+      <c r="M520" t="n">
+        <v>387.2555555555555</v>
+      </c>
+      <c r="N520" t="n">
+        <v>393.7838461538461</v>
+      </c>
+      <c r="O520" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>364.4557142857143</v>
+      </c>
+      <c r="C521" t="n">
+        <v>364.5177777777778</v>
+      </c>
+      <c r="D521" t="n">
+        <v>372.97</v>
+      </c>
+      <c r="E521" t="n">
+        <v>372.8633333333333</v>
+      </c>
+      <c r="F521" t="n">
+        <v>370.8733333333333</v>
+      </c>
+      <c r="G521" t="n">
+        <v>373.4</v>
+      </c>
+      <c r="H521" t="n">
+        <v>376.0628571428572</v>
+      </c>
+      <c r="I521" t="n">
+        <v>378.95</v>
+      </c>
+      <c r="J521" t="n">
+        <v>386.16</v>
+      </c>
+      <c r="K521" t="n">
+        <v>395.05</v>
+      </c>
+      <c r="L521" t="n">
+        <v>393.1777777777777</v>
+      </c>
+      <c r="M521" t="n">
+        <v>392.2977777777778</v>
+      </c>
+      <c r="N521" t="n">
+        <v>402.7484615384615</v>
+      </c>
+      <c r="O521" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:53+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>357.0728571428572</v>
+      </c>
+      <c r="C522" t="n">
+        <v>341.3155555555555</v>
+      </c>
+      <c r="D522" t="n">
+        <v>346.4154545454546</v>
+      </c>
+      <c r="E522" t="n">
+        <v>353.9966666666667</v>
+      </c>
+      <c r="F522" t="n">
+        <v>359.6266666666667</v>
+      </c>
+      <c r="G522" t="n">
+        <v>366.5854545454546</v>
+      </c>
+      <c r="H522" t="n">
+        <v>367.1814285714286</v>
+      </c>
+      <c r="I522" t="n">
+        <v>367.1254545454545</v>
+      </c>
+      <c r="J522" t="n">
+        <v>376.5854545454546</v>
+      </c>
+      <c r="K522" t="n">
+        <v>378.77</v>
+      </c>
+      <c r="L522" t="n">
+        <v>379.7155555555556</v>
+      </c>
+      <c r="M522" t="n">
+        <v>390.2055555555555</v>
+      </c>
+      <c r="N522" t="n">
+        <v>382.1661538461539</v>
+      </c>
+      <c r="O522" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24429,7 +24633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B535"/>
+  <dimension ref="A1:B539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29787,6 +29991,46 @@
       </c>
       <c r="B535" t="n">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -29960,28 +30204,28 @@
         <v>0.0359</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1577313343152132</v>
+        <v>-0.1570141778678339</v>
       </c>
       <c r="J2" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K2" t="n">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01074955422746093</v>
+        <v>0.01078317483847657</v>
       </c>
       <c r="M2" t="n">
-        <v>8.764148010059804</v>
+        <v>8.752319978801681</v>
       </c>
       <c r="N2" t="n">
-        <v>126.5535804353433</v>
+        <v>126.1821372599968</v>
       </c>
       <c r="O2" t="n">
-        <v>11.24960356791933</v>
+        <v>11.2330822689054</v>
       </c>
       <c r="P2" t="n">
-        <v>370.0440456503523</v>
+        <v>370.0373314571694</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30038,28 +30282,28 @@
         <v>0.0459</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08079464835391981</v>
+        <v>0.08535526531188058</v>
       </c>
       <c r="J3" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K3" t="n">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003373347528434656</v>
+        <v>0.00379113414681187</v>
       </c>
       <c r="M3" t="n">
-        <v>7.810415514898346</v>
+        <v>7.829070672187321</v>
       </c>
       <c r="N3" t="n">
-        <v>105.1841674046371</v>
+        <v>105.3935373405878</v>
       </c>
       <c r="O3" t="n">
-        <v>10.25593327809016</v>
+        <v>10.26613546280137</v>
       </c>
       <c r="P3" t="n">
-        <v>353.7615576395322</v>
+        <v>353.7167378040402</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30116,28 +30360,28 @@
         <v>0.0615</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2510381890276463</v>
+        <v>0.2567663903183851</v>
       </c>
       <c r="J4" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K4" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0337050720645885</v>
+        <v>0.03546971737207172</v>
       </c>
       <c r="M4" t="n">
-        <v>7.487842757865701</v>
+        <v>7.507977138366599</v>
       </c>
       <c r="N4" t="n">
-        <v>97.15547751813565</v>
+        <v>97.31948484716507</v>
       </c>
       <c r="O4" t="n">
-        <v>9.856747816502949</v>
+        <v>9.865063854185895</v>
       </c>
       <c r="P4" t="n">
-        <v>351.6071544327742</v>
+        <v>351.5502945888851</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30194,28 +30438,28 @@
         <v>0.0664</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3023299136019099</v>
+        <v>0.3086620455772222</v>
       </c>
       <c r="J5" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K5" t="n">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05669771484063535</v>
+        <v>0.05918146244037847</v>
       </c>
       <c r="M5" t="n">
-        <v>7.012227792063182</v>
+        <v>7.035292113060362</v>
       </c>
       <c r="N5" t="n">
-        <v>83.57444207971535</v>
+        <v>84.0266005611247</v>
       </c>
       <c r="O5" t="n">
-        <v>9.141905823170317</v>
+        <v>9.166602454624325</v>
       </c>
       <c r="P5" t="n">
-        <v>357.1483246874451</v>
+        <v>357.0867551960504</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30272,28 +30516,28 @@
         <v>0.0624</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2761824013690332</v>
+        <v>0.2773093884098245</v>
       </c>
       <c r="J6" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K6" t="n">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04706845894077394</v>
+        <v>0.04797970071868185</v>
       </c>
       <c r="M6" t="n">
-        <v>7.145475970068101</v>
+        <v>7.137956198055165</v>
       </c>
       <c r="N6" t="n">
-        <v>85.97881883198204</v>
+        <v>85.74404946360195</v>
       </c>
       <c r="O6" t="n">
-        <v>9.272476413126217</v>
+        <v>9.259808284386992</v>
       </c>
       <c r="P6" t="n">
-        <v>361.8752731454687</v>
+        <v>361.8646116163866</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30350,28 +30594,28 @@
         <v>0.0571</v>
       </c>
       <c r="I7" t="n">
-        <v>0.23338729712722</v>
+        <v>0.2341680320820319</v>
       </c>
       <c r="J7" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K7" t="n">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03611175322740068</v>
+        <v>0.03660431039165812</v>
       </c>
       <c r="M7" t="n">
-        <v>6.866013322360273</v>
+        <v>6.876352601392107</v>
       </c>
       <c r="N7" t="n">
-        <v>80.3509086668906</v>
+        <v>80.50306888159386</v>
       </c>
       <c r="O7" t="n">
-        <v>8.963866836744653</v>
+        <v>8.972350242918177</v>
       </c>
       <c r="P7" t="n">
-        <v>369.3650033954438</v>
+        <v>369.357699976891</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30428,28 +30672,28 @@
         <v>0.0736</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2412046574561874</v>
+        <v>0.2445465658543888</v>
       </c>
       <c r="J8" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K8" t="n">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0363205303955032</v>
+        <v>0.03790051576574849</v>
       </c>
       <c r="M8" t="n">
-        <v>6.709079617440191</v>
+        <v>6.686554536613206</v>
       </c>
       <c r="N8" t="n">
-        <v>83.99564096861592</v>
+        <v>83.3928828682233</v>
       </c>
       <c r="O8" t="n">
-        <v>9.16491358216846</v>
+        <v>9.131970371624259</v>
       </c>
       <c r="P8" t="n">
-        <v>365.3125944096328</v>
+        <v>365.2798373067403</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30506,28 +30750,28 @@
         <v>0.0569</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2677028759843254</v>
+        <v>0.2722344987328438</v>
       </c>
       <c r="J9" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K9" t="n">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04667616317193013</v>
+        <v>0.04860772057122187</v>
       </c>
       <c r="M9" t="n">
-        <v>6.829144115411351</v>
+        <v>6.83499853612375</v>
       </c>
       <c r="N9" t="n">
-        <v>79.83816081360543</v>
+        <v>79.87079833549019</v>
       </c>
       <c r="O9" t="n">
-        <v>8.935220244269608</v>
+        <v>8.937046398866361</v>
       </c>
       <c r="P9" t="n">
-        <v>367.2030611073675</v>
+        <v>367.1586908013535</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30584,28 +30828,28 @@
         <v>0.0579</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2559823555438598</v>
+        <v>0.2645323510333805</v>
       </c>
       <c r="J10" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K10" t="n">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04564548872852459</v>
+        <v>0.04872700031227339</v>
       </c>
       <c r="M10" t="n">
-        <v>6.582938696550758</v>
+        <v>6.59470642735954</v>
       </c>
       <c r="N10" t="n">
-        <v>74.04912439583202</v>
+        <v>74.52482360082722</v>
       </c>
       <c r="O10" t="n">
-        <v>8.605180090842493</v>
+        <v>8.632776123636429</v>
       </c>
       <c r="P10" t="n">
-        <v>375.473083593089</v>
+        <v>375.3879568278311</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30662,28 +30906,28 @@
         <v>0.0548</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2035943101996598</v>
+        <v>0.2100699747363822</v>
       </c>
       <c r="J11" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K11" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03126113646216733</v>
+        <v>0.03336547330010464</v>
       </c>
       <c r="M11" t="n">
-        <v>6.479860708083661</v>
+        <v>6.496947444691902</v>
       </c>
       <c r="N11" t="n">
-        <v>69.05270687760473</v>
+        <v>69.36294361718959</v>
       </c>
       <c r="O11" t="n">
-        <v>8.309795838503177</v>
+        <v>8.328441848100375</v>
       </c>
       <c r="P11" t="n">
-        <v>383.1534441986779</v>
+        <v>383.0888844769448</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30740,28 +30984,28 @@
         <v>0.0504</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2011821896403639</v>
+        <v>0.2132218008935448</v>
       </c>
       <c r="J12" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K12" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02631465338779782</v>
+        <v>0.02948571640442688</v>
       </c>
       <c r="M12" t="n">
-        <v>6.812604795725986</v>
+        <v>6.843488207056974</v>
       </c>
       <c r="N12" t="n">
-        <v>80.17199982388138</v>
+        <v>80.8416428330254</v>
       </c>
       <c r="O12" t="n">
-        <v>8.953881829903798</v>
+        <v>8.99119807550837</v>
       </c>
       <c r="P12" t="n">
-        <v>382.2428794596225</v>
+        <v>382.121939153613</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30818,28 +31062,28 @@
         <v>0.0458</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2039072681315071</v>
+        <v>0.2135493451548217</v>
       </c>
       <c r="J13" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K13" t="n">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02583546003923221</v>
+        <v>0.02844070116740982</v>
       </c>
       <c r="M13" t="n">
-        <v>7.335900910879667</v>
+        <v>7.324378317067672</v>
       </c>
       <c r="N13" t="n">
-        <v>84.86768984001863</v>
+        <v>85.10973872072132</v>
       </c>
       <c r="O13" t="n">
-        <v>9.212366136884629</v>
+        <v>9.225493955378287</v>
       </c>
       <c r="P13" t="n">
-        <v>384.5655077423877</v>
+        <v>384.4689021839642</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30896,28 +31140,28 @@
         <v>0.0742</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2506148909462904</v>
+        <v>0.2618719852092353</v>
       </c>
       <c r="J14" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K14" t="n">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03287816028597379</v>
+        <v>0.03607451063810319</v>
       </c>
       <c r="M14" t="n">
-        <v>7.578481342998252</v>
+        <v>7.596884996280519</v>
       </c>
       <c r="N14" t="n">
-        <v>104.3136621097144</v>
+        <v>104.4503194548487</v>
       </c>
       <c r="O14" t="n">
-        <v>10.21340599945554</v>
+        <v>10.22009390636156</v>
       </c>
       <c r="P14" t="n">
-        <v>383.8278153771508</v>
+        <v>383.7181763568315</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30955,7 +31199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O518"/>
+  <dimension ref="A1:O522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65925,6 +66169,314 @@
         </is>
       </c>
     </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>-35.02888475698616,173.91658684032404</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>-35.02941516749008,173.91595143095725</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>-35.02999131666344,173.91539354395633</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>-35.03066439244553,173.9150345472775</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>-35.03129211716854,173.9146043443652</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>-35.03197043799317,173.91437596870847</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>-35.03263643616663,173.91402510103143</t>
+        </is>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>-35.03338829749192,173.91400377307556</t>
+        </is>
+      </c>
+      <c r="J519" t="inlineStr">
+        <is>
+          <t>-35.03413562053234,173.91392712545712</t>
+        </is>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>-35.0348337881385,173.9137307229467</t>
+        </is>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>-35.0355446268144,173.91365050284756</t>
+        </is>
+      </c>
+      <c r="M519" t="inlineStr">
+        <is>
+          <t>-35.03624893045285,173.91355670005336</t>
+        </is>
+      </c>
+      <c r="N519" t="inlineStr">
+        <is>
+          <t>-35.03695915741199,173.91349398465067</t>
+        </is>
+      </c>
+      <c r="O519" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>-35.02877969264808,173.916412469407</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>-35.02934292863628,173.91583153935997</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>-35.02993726808497,173.91530016372658</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>-35.030574136725946,173.91484838393373</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>-35.031238789202476,173.91446580903346</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>-35.031914378377344,173.91415222924473</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>-35.03263663420964,173.91402634644456</t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>-35.03335136260483,173.9137993074665</t>
+        </is>
+      </c>
+      <c r="J520" t="inlineStr">
+        <is>
+          <t>-35.034088879535325,173.9136935758755</t>
+        </is>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>-35.03480822120031,173.91356646142242</t>
+        </is>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>-35.03552884824109,173.913502345027</t>
+        </is>
+      </c>
+      <c r="M520" t="inlineStr">
+        <is>
+          <t>-35.03623551709478,173.9133028056096</t>
+        </is>
+      </c>
+      <c r="N520" t="inlineStr">
+        <is>
+          <t>-35.03695851034311,173.91336391882092</t>
+        </is>
+      </c>
+      <c r="O520" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>-35.028791376625186,173.9164318607752</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>-35.02938220949028,173.91589673198663</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>-35.03001634087541,173.91543677860398</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>-35.03061514405322,173.91493296638345</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>-35.03125341427946,173.91450380198307</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>-35.0319206818207,173.91417738681173</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>-35.03263792026645,173.9140344339423</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>-35.03336710472313,173.91388645305082</t>
+        </is>
+      </c>
+      <c r="J521" t="inlineStr">
+        <is>
+          <t>-35.03409910992047,173.91374469357163</t>
+        </is>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>-35.03481732473251,173.91362494928515</t>
+        </is>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>-35.035526558306664,173.91348084312185</t>
+        </is>
+      </c>
+      <c r="M521" t="inlineStr">
+        <is>
+          <t>-35.036238431384284,173.91335796780905</t>
+        </is>
+      </c>
+      <c r="N521" t="inlineStr">
+        <is>
+          <t>-35.03695899926553,173.9134621934048</t>
+        </is>
+      </c>
+      <c r="O521" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:53+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>-35.02875203928756,173.91636657441867</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>-35.02925858272229,173.91569155473874</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>-35.02987855420646,173.91519872349846</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>-35.03052876457351,173.91475479876027</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>-35.03121043078689,173.9143921398155</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>-35.03190277706594,173.91410592751043</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>-35.032622719822605,173.91393884465444</t>
+        </is>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>-35.03334423440942,173.9137598471622</t>
+        </is>
+      </c>
+      <c r="J522" t="inlineStr">
+        <is>
+          <t>-35.03407869951505,173.91364270995516</t>
+        </is>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>-35.03479003081603,173.9134495934465</t>
+        </is>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>-35.035510971212986,173.9133344852398</t>
+        </is>
+      </c>
+      <c r="M522" t="inlineStr">
+        <is>
+          <t>-35.03623722213059,173.9133350787779</t>
+        </is>
+      </c>
+      <c r="N522" t="inlineStr">
+        <is>
+          <t>-35.03695787660568,173.91323655988396</t>
+        </is>
+      </c>
+      <c r="O522" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0053/nzd0053.xlsx
+++ b/data/nzd0053/nzd0053.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O522"/>
+  <dimension ref="A1:O526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24622,6 +24622,210 @@
         </is>
       </c>
     </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>359.0142857142857</v>
+      </c>
+      <c r="C523" t="n">
+        <v>345.9088888888889</v>
+      </c>
+      <c r="D523" t="n">
+        <v>361.5036363636364</v>
+      </c>
+      <c r="E523" t="n">
+        <v>360.1366666666667</v>
+      </c>
+      <c r="F523" t="n">
+        <v>368.9366666666667</v>
+      </c>
+      <c r="G523" t="n">
+        <v>371.4536363636364</v>
+      </c>
+      <c r="H523" t="n">
+        <v>365.1171428571428</v>
+      </c>
+      <c r="I523" t="n">
+        <v>373.9736363636364</v>
+      </c>
+      <c r="J523" t="n">
+        <v>380.9736363636364</v>
+      </c>
+      <c r="K523" t="n">
+        <v>388.38</v>
+      </c>
+      <c r="L523" t="n">
+        <v>384.9988888888889</v>
+      </c>
+      <c r="M523" t="n">
+        <v>386.1188888888889</v>
+      </c>
+      <c r="N523" t="n">
+        <v>387.99</v>
+      </c>
+      <c r="O523" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>360.3885714285714</v>
+      </c>
+      <c r="C524" t="n">
+        <v>353.6844444444445</v>
+      </c>
+      <c r="D524" t="n">
+        <v>357.8309090909091</v>
+      </c>
+      <c r="E524" t="n">
+        <v>360.4233333333333</v>
+      </c>
+      <c r="F524" t="n">
+        <v>369.9733333333333</v>
+      </c>
+      <c r="G524" t="n">
+        <v>371.9509090909091</v>
+      </c>
+      <c r="H524" t="n">
+        <v>374.9242857142857</v>
+      </c>
+      <c r="I524" t="n">
+        <v>375.4509090909091</v>
+      </c>
+      <c r="J524" t="n">
+        <v>386.180909090909</v>
+      </c>
+      <c r="K524" t="n">
+        <v>387.01</v>
+      </c>
+      <c r="L524" t="n">
+        <v>392.9044444444445</v>
+      </c>
+      <c r="M524" t="n">
+        <v>386.0544444444445</v>
+      </c>
+      <c r="N524" t="n">
+        <v>394.3384615384616</v>
+      </c>
+      <c r="O524" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>359.0828571428572</v>
+      </c>
+      <c r="C525" t="n">
+        <v>352.4044444444444</v>
+      </c>
+      <c r="D525" t="n">
+        <v>348.6054545454546</v>
+      </c>
+      <c r="E525" t="n">
+        <v>358.1233333333333</v>
+      </c>
+      <c r="F525" t="n">
+        <v>361.9333333333333</v>
+      </c>
+      <c r="G525" t="n">
+        <v>373.5254545454546</v>
+      </c>
+      <c r="H525" t="n">
+        <v>372.3414285714285</v>
+      </c>
+      <c r="I525" t="n">
+        <v>375.1954545454545</v>
+      </c>
+      <c r="J525" t="n">
+        <v>376.4054545454546</v>
+      </c>
+      <c r="K525" t="n">
+        <v>388.4500000000001</v>
+      </c>
+      <c r="L525" t="n">
+        <v>385.9244444444445</v>
+      </c>
+      <c r="M525" t="n">
+        <v>381.5844444444445</v>
+      </c>
+      <c r="N525" t="n">
+        <v>391.84</v>
+      </c>
+      <c r="O525" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>367.4342857142857</v>
+      </c>
+      <c r="C526" t="n">
+        <v>366.8544444444445</v>
+      </c>
+      <c r="D526" t="n">
+        <v>359.920909090909</v>
+      </c>
+      <c r="E526" t="n">
+        <v>363.8333333333333</v>
+      </c>
+      <c r="F526" t="n">
+        <v>375.0633333333333</v>
+      </c>
+      <c r="G526" t="n">
+        <v>373.0109090909091</v>
+      </c>
+      <c r="H526" t="n">
+        <v>359.5871428571429</v>
+      </c>
+      <c r="I526" t="n">
+        <v>360.5109090909091</v>
+      </c>
+      <c r="J526" t="n">
+        <v>369.2609090909091</v>
+      </c>
+      <c r="K526" t="n">
+        <v>383.96</v>
+      </c>
+      <c r="L526" t="n">
+        <v>393.1144444444445</v>
+      </c>
+      <c r="M526" t="n">
+        <v>377.3444444444444</v>
+      </c>
+      <c r="N526" t="n">
+        <v>409.1992307692308</v>
+      </c>
+      <c r="O526" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24633,7 +24837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B539"/>
+  <dimension ref="A1:B543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30031,6 +30235,46 @@
       </c>
       <c r="B539" t="n">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -30204,28 +30448,28 @@
         <v>0.0359</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1570141778678339</v>
+        <v>-0.1649618231041126</v>
       </c>
       <c r="J2" t="n">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="K2" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01078317483847657</v>
+        <v>0.01208332783976551</v>
       </c>
       <c r="M2" t="n">
-        <v>8.752319978801681</v>
+        <v>8.720049297012975</v>
       </c>
       <c r="N2" t="n">
-        <v>126.1821372599968</v>
+        <v>125.2887514602359</v>
       </c>
       <c r="O2" t="n">
-        <v>11.2330822689054</v>
+        <v>11.1932457964719</v>
       </c>
       <c r="P2" t="n">
-        <v>370.0373314571694</v>
+        <v>370.1160381939424</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30282,28 +30526,28 @@
         <v>0.0459</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08535526531188058</v>
+        <v>0.08324852029364092</v>
       </c>
       <c r="J3" t="n">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="K3" t="n">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00379113414681187</v>
+        <v>0.003655640020654438</v>
       </c>
       <c r="M3" t="n">
-        <v>7.829070672187321</v>
+        <v>7.818333270979464</v>
       </c>
       <c r="N3" t="n">
-        <v>105.3935373405878</v>
+        <v>104.957878966817</v>
       </c>
       <c r="O3" t="n">
-        <v>10.26613546280137</v>
+        <v>10.24489526382857</v>
       </c>
       <c r="P3" t="n">
-        <v>353.7167378040402</v>
+        <v>353.7377072261629</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30360,28 +30604,28 @@
         <v>0.0615</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2567663903183851</v>
+        <v>0.2546774767856718</v>
       </c>
       <c r="J4" t="n">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="K4" t="n">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03546971737207172</v>
+        <v>0.03546026868839891</v>
       </c>
       <c r="M4" t="n">
-        <v>7.507977138366599</v>
+        <v>7.472205508257299</v>
       </c>
       <c r="N4" t="n">
-        <v>97.31948484716507</v>
+        <v>96.67326669628176</v>
       </c>
       <c r="O4" t="n">
-        <v>9.865063854185895</v>
+        <v>9.832256439713204</v>
       </c>
       <c r="P4" t="n">
-        <v>351.5502945888851</v>
+        <v>351.5713147256295</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30438,28 +30682,28 @@
         <v>0.0664</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3086620455772222</v>
+        <v>0.3011475746807638</v>
       </c>
       <c r="J5" t="n">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="K5" t="n">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05918146244037847</v>
+        <v>0.05735264973944254</v>
       </c>
       <c r="M5" t="n">
-        <v>7.035292113060362</v>
+        <v>7.011627121714381</v>
       </c>
       <c r="N5" t="n">
-        <v>84.0266005611247</v>
+        <v>83.47897027479354</v>
       </c>
       <c r="O5" t="n">
-        <v>9.166602454624325</v>
+        <v>9.136682673421111</v>
       </c>
       <c r="P5" t="n">
-        <v>357.0867551960504</v>
+        <v>357.1608535237207</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30516,28 +30760,28 @@
         <v>0.0624</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2773093884098245</v>
+        <v>0.2772621076706133</v>
       </c>
       <c r="J6" t="n">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="K6" t="n">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04797970071868185</v>
+        <v>0.04869685300331283</v>
       </c>
       <c r="M6" t="n">
-        <v>7.137956198055165</v>
+        <v>7.105672506368445</v>
       </c>
       <c r="N6" t="n">
-        <v>85.74404946360195</v>
+        <v>85.17141652628575</v>
       </c>
       <c r="O6" t="n">
-        <v>9.259808284386992</v>
+        <v>9.228836141479908</v>
       </c>
       <c r="P6" t="n">
-        <v>361.8646116163866</v>
+        <v>361.8650467152632</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30594,28 +30838,28 @@
         <v>0.0571</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2341680320820319</v>
+        <v>0.229268810444186</v>
       </c>
       <c r="J7" t="n">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="K7" t="n">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03660431039165812</v>
+        <v>0.03573133215817581</v>
       </c>
       <c r="M7" t="n">
-        <v>6.876352601392107</v>
+        <v>6.840096537567703</v>
       </c>
       <c r="N7" t="n">
-        <v>80.50306888159386</v>
+        <v>79.862161953946</v>
       </c>
       <c r="O7" t="n">
-        <v>8.972350242918177</v>
+        <v>8.936563207069371</v>
       </c>
       <c r="P7" t="n">
-        <v>369.357699976891</v>
+        <v>369.4059000141846</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30672,28 +30916,28 @@
         <v>0.0736</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2445465658543888</v>
+        <v>0.2384264520382943</v>
       </c>
       <c r="J8" t="n">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="K8" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03790051576574849</v>
+        <v>0.03655540507680344</v>
       </c>
       <c r="M8" t="n">
-        <v>6.686554536613206</v>
+        <v>6.675897184179641</v>
       </c>
       <c r="N8" t="n">
-        <v>83.3928828682233</v>
+        <v>83.08650947090517</v>
       </c>
       <c r="O8" t="n">
-        <v>9.131970371624259</v>
+        <v>9.115180166672801</v>
       </c>
       <c r="P8" t="n">
-        <v>365.2798373067403</v>
+        <v>365.3405823249002</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30750,28 +30994,28 @@
         <v>0.0569</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2722344987328438</v>
+        <v>0.2672735655690746</v>
       </c>
       <c r="J9" t="n">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="K9" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04860772057122187</v>
+        <v>0.04752358075349628</v>
       </c>
       <c r="M9" t="n">
-        <v>6.83499853612375</v>
+        <v>6.812369689989959</v>
       </c>
       <c r="N9" t="n">
-        <v>79.87079833549019</v>
+        <v>79.57599866317491</v>
       </c>
       <c r="O9" t="n">
-        <v>8.937046398866361</v>
+        <v>8.920538025431814</v>
       </c>
       <c r="P9" t="n">
-        <v>367.1586908013535</v>
+        <v>367.2080261417365</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30828,28 +31072,28 @@
         <v>0.0579</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2645323510333805</v>
+        <v>0.2574681606933448</v>
       </c>
       <c r="J10" t="n">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="K10" t="n">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04872700031227339</v>
+        <v>0.04680124479686387</v>
       </c>
       <c r="M10" t="n">
-        <v>6.59470642735954</v>
+        <v>6.588882250974207</v>
       </c>
       <c r="N10" t="n">
-        <v>74.52482360082722</v>
+        <v>74.33441307948654</v>
       </c>
       <c r="O10" t="n">
-        <v>8.632776123636429</v>
+        <v>8.621740722121405</v>
       </c>
       <c r="P10" t="n">
-        <v>375.3879568278311</v>
+        <v>375.4592265885228</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30906,28 +31150,28 @@
         <v>0.0548</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2100699747363822</v>
+        <v>0.2073656778268529</v>
       </c>
       <c r="J11" t="n">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="K11" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03336547330010464</v>
+        <v>0.03309983891368151</v>
       </c>
       <c r="M11" t="n">
-        <v>6.496947444691902</v>
+        <v>6.451706670695462</v>
       </c>
       <c r="N11" t="n">
-        <v>69.36294361718959</v>
+        <v>68.77714552912576</v>
       </c>
       <c r="O11" t="n">
-        <v>8.328441848100375</v>
+        <v>8.293198751333875</v>
       </c>
       <c r="P11" t="n">
-        <v>383.0888844769448</v>
+        <v>383.1162422168362</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30984,28 +31228,28 @@
         <v>0.0504</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2132218008935448</v>
+        <v>0.2160791454268</v>
       </c>
       <c r="J12" t="n">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="K12" t="n">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02948571640442688</v>
+        <v>0.03074471448284288</v>
       </c>
       <c r="M12" t="n">
-        <v>6.843488207056974</v>
+        <v>6.813890548955104</v>
       </c>
       <c r="N12" t="n">
-        <v>80.8416428330254</v>
+        <v>80.24676046108253</v>
       </c>
       <c r="O12" t="n">
-        <v>8.99119807550837</v>
+        <v>8.958055618329377</v>
       </c>
       <c r="P12" t="n">
-        <v>382.121939153613</v>
+        <v>382.0928526660487</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31062,28 +31306,28 @@
         <v>0.0458</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2135493451548217</v>
+        <v>0.2004879556478674</v>
       </c>
       <c r="J13" t="n">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="K13" t="n">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02844070116740982</v>
+        <v>0.02543980831315873</v>
       </c>
       <c r="M13" t="n">
-        <v>7.324378317067672</v>
+        <v>7.326272584156495</v>
       </c>
       <c r="N13" t="n">
-        <v>85.10973872072132</v>
+        <v>84.89911482927474</v>
       </c>
       <c r="O13" t="n">
-        <v>9.225493955378287</v>
+        <v>9.214071566320436</v>
       </c>
       <c r="P13" t="n">
-        <v>384.4689021839642</v>
+        <v>384.6012449546133</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31140,28 +31384,28 @@
         <v>0.0742</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2618719852092353</v>
+        <v>0.2721619276920503</v>
       </c>
       <c r="J14" t="n">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="K14" t="n">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03607451063810319</v>
+        <v>0.03925227597275316</v>
       </c>
       <c r="M14" t="n">
-        <v>7.596884996280519</v>
+        <v>7.579945975207074</v>
       </c>
       <c r="N14" t="n">
-        <v>104.4503194548487</v>
+        <v>104.3238973925126</v>
       </c>
       <c r="O14" t="n">
-        <v>10.22009390636156</v>
+        <v>10.21390705814933</v>
       </c>
       <c r="P14" t="n">
-        <v>383.7181763568315</v>
+        <v>383.6165860511031</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31199,7 +31443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O522"/>
+  <dimension ref="A1:O526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66477,6 +66721,314 @@
         </is>
       </c>
     </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>-35.02876238361033,173.91638374239997</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>-35.02928305708558,173.91573217353601</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>-35.02995684407547,173.91533398531777</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>-35.030556876087395,173.91481278189303</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>-35.03124601256519,173.91448457384226</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>-35.031915567886934,173.91415697667466</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>-35.0326191868149,173.91391662710726</t>
+        </is>
+      </c>
+      <c r="I523" t="inlineStr">
+        <is>
+          <t>-35.03335747976074,173.91383317091493</t>
+        </is>
+      </c>
+      <c r="J523" t="inlineStr">
+        <is>
+          <t>-35.03408805397195,173.9136894508261</t>
+        </is>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>-35.03480614230499,173.9135531050798</t>
+        </is>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>-35.035517088486564,173.9133919243001</t>
+        </is>
+      </c>
+      <c r="M523" t="inlineStr">
+        <is>
+          <t>-35.03623486012389,173.91329037041172</t>
+        </is>
+      </c>
+      <c r="N523" t="inlineStr">
+        <is>
+          <t>-35.03695819430934,173.91330040379003</t>
+        </is>
+      </c>
+      <c r="O523" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>-35.028769706080105,173.9163958951605</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>-35.029324487047276,173.91580093274501</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>-35.029937786966784,173.9153010602023</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>-35.03055818856779,173.91481548903263</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>-35.03124997458475,173.9144948663578</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>-35.03191687443644,173.91416219122138</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>-35.03263597162121,173.914022179692</t>
+        </is>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>-35.03336033700907,173.91384898813524</t>
+        </is>
+      </c>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>-35.034099154493056,173.9137449162856</t>
+        </is>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>-35.03480384545924,173.91353834847624</t>
+        </is>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>-35.03552624183227,173.91347787151034</t>
+        </is>
+      </c>
+      <c r="M524" t="inlineStr">
+        <is>
+          <t>-35.036234822876224,173.91328966538586</t>
+        </is>
+      </c>
+      <c r="N524" t="inlineStr">
+        <is>
+          <t>-35.036958540593666,173.91336999879132</t>
+        </is>
+      </c>
+      <c r="O524" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>-35.028762748972675,173.9163843487747</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>-35.02931766691345,173.91578961370502</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>-35.02988991773329,173.91521835629106</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>-35.03054765819997,173.91479376896132</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>-35.031219246615485,173.91441504147178</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>-35.03192101144358,173.91417870236478</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>-35.03263155110146,173.9139943808427</t>
+        </is>
+      </c>
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>-35.03335984292504,173.91384625297275</t>
+        </is>
+      </c>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>-35.034078315801686,173.91364079267916</t>
+        </is>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>-35.034806259662005,173.9135538590669</t>
+        </is>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>-35.03551816013232,173.91340198670622</t>
+        </is>
+      </c>
+      <c r="M525" t="inlineStr">
+        <is>
+          <t>-35.03623223929179,173.91324076333373</t>
+        </is>
+      </c>
+      <c r="N525" t="inlineStr">
+        <is>
+          <t>-35.0369584043169,173.91334260941002</t>
+        </is>
+      </c>
+      <c r="O525" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>-35.028807247038436,173.9164582001994</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>-35.02939465976696,173.91591739516366</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>-35.02994863159486,173.9153197965471</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>-35.03057380097533,173.9148476914094</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>-35.03126942796047,173.91454540229245</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>-35.031919659511935,173.9141733066907</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>-35.03260972224602,173.9138571086905</t>
+        </is>
+      </c>
+      <c r="I526" t="inlineStr">
+        <is>
+          <t>-35.0333314409014,173.91368902498476</t>
+        </is>
+      </c>
+      <c r="J526" t="inlineStr">
+        <is>
+          <t>-35.03406308545767,173.91356469232795</t>
+        </is>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>-35.034798732037046,173.91350549618645</t>
+        </is>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>-35.035526484977225,173.9134801545777</t>
+        </is>
+      </c>
+      <c r="M526" t="inlineStr">
+        <is>
+          <t>-35.0362297886252,173.91319437749704</t>
+        </is>
+      </c>
+      <c r="N526" t="inlineStr">
+        <is>
+          <t>-35.036959351035684,173.91353290995326</t>
+        </is>
+      </c>
+      <c r="O526" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0053/nzd0053.xlsx
+++ b/data/nzd0053/nzd0053.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O526"/>
+  <dimension ref="A1:O527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24826,6 +24826,57 @@
         </is>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>350.2985714285714</v>
+      </c>
+      <c r="C527" t="n">
+        <v>349.6855555555555</v>
+      </c>
+      <c r="D527" t="n">
+        <v>350.9718181818182</v>
+      </c>
+      <c r="E527" t="n">
+        <v>354.1366666666667</v>
+      </c>
+      <c r="F527" t="n">
+        <v>360.4666666666667</v>
+      </c>
+      <c r="G527" t="n">
+        <v>363.8218181818182</v>
+      </c>
+      <c r="H527" t="n">
+        <v>367.5542857142857</v>
+      </c>
+      <c r="I527" t="n">
+        <v>366.0118181818182</v>
+      </c>
+      <c r="J527" t="n">
+        <v>376.4618181818182</v>
+      </c>
+      <c r="K527" t="n">
+        <v>382.12</v>
+      </c>
+      <c r="L527" t="n">
+        <v>384.4855555555556</v>
+      </c>
+      <c r="M527" t="n">
+        <v>383.7355555555556</v>
+      </c>
+      <c r="N527" t="n">
+        <v>400.01</v>
+      </c>
+      <c r="O527" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24837,7 +24888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B543"/>
+  <dimension ref="A1:B544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30275,6 +30326,16 @@
       </c>
       <c r="B543" t="n">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>-0.65</v>
       </c>
     </row>
   </sheetData>
@@ -30448,28 +30509,28 @@
         <v>0.0359</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1649618231041126</v>
+        <v>-0.171799986437301</v>
       </c>
       <c r="J2" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K2" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01208332783976551</v>
+        <v>0.01309370153778799</v>
       </c>
       <c r="M2" t="n">
-        <v>8.720049297012975</v>
+        <v>8.736880770654793</v>
       </c>
       <c r="N2" t="n">
-        <v>125.2887514602359</v>
+        <v>125.5610291204234</v>
       </c>
       <c r="O2" t="n">
-        <v>11.1932457964719</v>
+        <v>11.20540178308763</v>
       </c>
       <c r="P2" t="n">
-        <v>370.1160381939424</v>
+        <v>370.1839437564716</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30526,28 +30587,28 @@
         <v>0.0459</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08324852029364092</v>
+        <v>0.08051401732935271</v>
       </c>
       <c r="J3" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K3" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003655640020654438</v>
+        <v>0.003433103590776421</v>
       </c>
       <c r="M3" t="n">
-        <v>7.818333270979464</v>
+        <v>7.814661210213107</v>
       </c>
       <c r="N3" t="n">
-        <v>104.957878966817</v>
+        <v>104.8007396341904</v>
       </c>
       <c r="O3" t="n">
-        <v>10.24489526382857</v>
+        <v>10.2372232384661</v>
       </c>
       <c r="P3" t="n">
-        <v>353.7377072261629</v>
+        <v>353.7651267895142</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30604,28 +30665,28 @@
         <v>0.0615</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2546774767856718</v>
+        <v>0.2515664651774198</v>
       </c>
       <c r="J4" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K4" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03546026868839891</v>
+        <v>0.03474178257761251</v>
       </c>
       <c r="M4" t="n">
-        <v>7.472205508257299</v>
+        <v>7.469372008864746</v>
       </c>
       <c r="N4" t="n">
-        <v>96.67326669628176</v>
+        <v>96.56961421618584</v>
       </c>
       <c r="O4" t="n">
-        <v>9.832256439713204</v>
+        <v>9.826983983714731</v>
       </c>
       <c r="P4" t="n">
-        <v>351.5713147256295</v>
+        <v>351.6026695965031</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30682,28 +30743,28 @@
         <v>0.0664</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3011475746807638</v>
+        <v>0.2965585549067504</v>
       </c>
       <c r="J5" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K5" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05735264973944254</v>
+        <v>0.05579022324396188</v>
       </c>
       <c r="M5" t="n">
-        <v>7.011627121714381</v>
+        <v>7.020001827868017</v>
       </c>
       <c r="N5" t="n">
-        <v>83.47897027479354</v>
+        <v>83.55127597570819</v>
       </c>
       <c r="O5" t="n">
-        <v>9.136682673421111</v>
+        <v>9.140638707207948</v>
       </c>
       <c r="P5" t="n">
-        <v>357.1608535237207</v>
+        <v>357.2062115943395</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30760,28 +30821,28 @@
         <v>0.0624</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2772621076706133</v>
+        <v>0.2736736765417668</v>
       </c>
       <c r="J6" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K6" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04869685300331283</v>
+        <v>0.04762099965658884</v>
       </c>
       <c r="M6" t="n">
-        <v>7.105672506368445</v>
+        <v>7.108532082884517</v>
       </c>
       <c r="N6" t="n">
-        <v>85.17141652628575</v>
+        <v>85.14340135253977</v>
       </c>
       <c r="O6" t="n">
-        <v>9.228836141479908</v>
+        <v>9.227318210213614</v>
       </c>
       <c r="P6" t="n">
-        <v>361.8650467152632</v>
+        <v>361.9002439698967</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30838,28 +30899,28 @@
         <v>0.0571</v>
       </c>
       <c r="I7" t="n">
-        <v>0.229268810444186</v>
+        <v>0.2244311724833548</v>
       </c>
       <c r="J7" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K7" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03573133215817581</v>
+        <v>0.03431771594505573</v>
       </c>
       <c r="M7" t="n">
-        <v>6.840096537567703</v>
+        <v>6.8496168128175</v>
       </c>
       <c r="N7" t="n">
-        <v>79.862161953946</v>
+        <v>79.97709720968467</v>
       </c>
       <c r="O7" t="n">
-        <v>8.936563207069371</v>
+        <v>8.942991513452569</v>
       </c>
       <c r="P7" t="n">
-        <v>369.4059000141846</v>
+        <v>369.4536042600554</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30916,28 +30977,28 @@
         <v>0.0736</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2384264520382943</v>
+        <v>0.2367526156687317</v>
       </c>
       <c r="J8" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K8" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03655540507680344</v>
+        <v>0.0362061030283285</v>
       </c>
       <c r="M8" t="n">
-        <v>6.675897184179641</v>
+        <v>6.66957148227799</v>
       </c>
       <c r="N8" t="n">
-        <v>83.08650947090517</v>
+        <v>82.93610335949919</v>
       </c>
       <c r="O8" t="n">
-        <v>9.115180166672801</v>
+        <v>9.106926120239429</v>
       </c>
       <c r="P8" t="n">
-        <v>365.3405823249002</v>
+        <v>365.3572231709474</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30994,28 +31055,28 @@
         <v>0.0569</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2672735655690746</v>
+        <v>0.2638175063653794</v>
       </c>
       <c r="J9" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K9" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04752358075349628</v>
+        <v>0.0464787465322648</v>
       </c>
       <c r="M9" t="n">
-        <v>6.812369689989959</v>
+        <v>6.816891684565965</v>
       </c>
       <c r="N9" t="n">
-        <v>79.57599866317491</v>
+        <v>79.5433369766224</v>
       </c>
       <c r="O9" t="n">
-        <v>8.920538025431814</v>
+        <v>8.918707135937495</v>
       </c>
       <c r="P9" t="n">
-        <v>367.2080261417365</v>
+        <v>367.2424219341932</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31072,28 +31133,28 @@
         <v>0.0579</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2574681606933448</v>
+        <v>0.2549872188497087</v>
       </c>
       <c r="J10" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K10" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04680124479686387</v>
+        <v>0.04610274720008334</v>
       </c>
       <c r="M10" t="n">
-        <v>6.588882250974207</v>
+        <v>6.586595655566424</v>
       </c>
       <c r="N10" t="n">
-        <v>74.33441307948654</v>
+        <v>74.23455522515992</v>
       </c>
       <c r="O10" t="n">
-        <v>8.621740722121405</v>
+        <v>8.615947726463986</v>
       </c>
       <c r="P10" t="n">
-        <v>375.4592265885228</v>
+        <v>375.4842874905049</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31150,28 +31211,28 @@
         <v>0.0548</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2073656778268529</v>
+        <v>0.2046095298654285</v>
       </c>
       <c r="J11" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K11" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03309983891368151</v>
+        <v>0.03235392985675423</v>
       </c>
       <c r="M11" t="n">
-        <v>6.451706670695462</v>
+        <v>6.451978380840142</v>
       </c>
       <c r="N11" t="n">
-        <v>68.77714552912576</v>
+        <v>68.71115449955131</v>
       </c>
       <c r="O11" t="n">
-        <v>8.293198751333875</v>
+        <v>8.289219173091716</v>
       </c>
       <c r="P11" t="n">
-        <v>383.1162422168362</v>
+        <v>383.1441609489632</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31228,28 +31289,28 @@
         <v>0.0504</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2160791454268</v>
+        <v>0.2146844971515405</v>
       </c>
       <c r="J12" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K12" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03074471448284288</v>
+        <v>0.03048655416190393</v>
       </c>
       <c r="M12" t="n">
-        <v>6.813890548955104</v>
+        <v>6.805911686228082</v>
       </c>
       <c r="N12" t="n">
-        <v>80.24676046108253</v>
+        <v>80.08391131082644</v>
       </c>
       <c r="O12" t="n">
-        <v>8.958055618329377</v>
+        <v>8.948961465490084</v>
       </c>
       <c r="P12" t="n">
-        <v>382.0928526660487</v>
+        <v>382.1070601087293</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31306,28 +31367,28 @@
         <v>0.0458</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2004879556478674</v>
+        <v>0.1977572031692116</v>
       </c>
       <c r="J13" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K13" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02543980831315873</v>
+        <v>0.0248563316820144</v>
       </c>
       <c r="M13" t="n">
-        <v>7.326272584156495</v>
+        <v>7.323928574188844</v>
       </c>
       <c r="N13" t="n">
-        <v>84.89911482927474</v>
+        <v>84.78064101045598</v>
       </c>
       <c r="O13" t="n">
-        <v>9.214071566320436</v>
+        <v>9.20764036061661</v>
       </c>
       <c r="P13" t="n">
-        <v>384.6012449546133</v>
+        <v>384.6289639926779</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31384,28 +31445,28 @@
         <v>0.0742</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2721619276920503</v>
+        <v>0.2766188911570178</v>
       </c>
       <c r="J14" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K14" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03925227597275316</v>
+        <v>0.04060189472869979</v>
       </c>
       <c r="M14" t="n">
-        <v>7.579945975207074</v>
+        <v>7.581985887897247</v>
       </c>
       <c r="N14" t="n">
-        <v>104.3238973925126</v>
+        <v>104.2783566192214</v>
       </c>
       <c r="O14" t="n">
-        <v>10.21390705814933</v>
+        <v>10.21167746353269</v>
       </c>
       <c r="P14" t="n">
-        <v>383.6165860511031</v>
+        <v>383.572536443017</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31443,7 +31504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O526"/>
+  <dimension ref="A1:O527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60713,7 +60774,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>-35.028775133232045,173.9164049023534</t>
+          <t>-35.02877513323205,173.9164049023534</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -63733,7 +63794,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>-35.03264365861597,173.91407052017573</t>
+          <t>-35.032643658615974,173.91407052017573</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -65912,7 +65973,7 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>-35.032634675783676,173.91401403069273</t>
+          <t>-35.03263467578368,173.91401403069273</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -67024,6 +67085,83 @@
         </is>
       </c>
       <c r="O526" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>-35.02871594450812,173.9163066696935</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>-35.029303180045716,173.91576557057675</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>-35.02990219637648,173.91523957014485</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>-35.03052940555297,173.9147561208508</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>-35.03121364117584,173.91440047972446</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>-35.031895515787184,173.9140769472261</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>-35.03262335796405,173.91394285765105</t>
+        </is>
+      </c>
+      <c r="I527" t="inlineStr">
+        <is>
+          <t>-35.03334208047511,173.91374792341585</t>
+        </is>
+      </c>
+      <c r="J527" t="inlineStr">
+        <is>
+          <t>-35.034078435954356,173.91364139303832</t>
+        </is>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>-35.034795647214054,173.913485677102</t>
+        </is>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>-35.03551649412806,173.9133863434699</t>
+        </is>
+      </c>
+      <c r="M527" t="inlineStr">
+        <is>
+          <t>-35.036233482600124,173.9132642966103</t>
+        </is>
+      </c>
+      <c r="N527" t="inlineStr">
+        <is>
+          <t>-35.03695884992063,173.91343217302398</t>
+        </is>
+      </c>
+      <c r="O527" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0053/nzd0053.xlsx
+++ b/data/nzd0053/nzd0053.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O527"/>
+  <dimension ref="A1:O530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24877,6 +24877,159 @@
         </is>
       </c>
     </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>360.3957142857143</v>
+      </c>
+      <c r="C528" t="n">
+        <v>350.4466666666667</v>
+      </c>
+      <c r="D528" t="n">
+        <v>350.5445454545454</v>
+      </c>
+      <c r="E528" t="n">
+        <v>358.71</v>
+      </c>
+      <c r="F528" t="n">
+        <v>361.01</v>
+      </c>
+      <c r="G528" t="n">
+        <v>369.0045454545455</v>
+      </c>
+      <c r="H528" t="n">
+        <v>370.5028571428572</v>
+      </c>
+      <c r="I528" t="n">
+        <v>367.7545454545455</v>
+      </c>
+      <c r="J528" t="n">
+        <v>375.0745454545454</v>
+      </c>
+      <c r="K528" t="n">
+        <v>387.11</v>
+      </c>
+      <c r="L528" t="n">
+        <v>390.9966666666666</v>
+      </c>
+      <c r="M528" t="n">
+        <v>391.9666666666667</v>
+      </c>
+      <c r="N528" t="n">
+        <v>402.1546153846153</v>
+      </c>
+      <c r="O528" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>360.8971428571429</v>
+      </c>
+      <c r="C529" t="n">
+        <v>353.0155555555555</v>
+      </c>
+      <c r="D529" t="n">
+        <v>357.4045454545454</v>
+      </c>
+      <c r="E529" t="n">
+        <v>365.0366666666667</v>
+      </c>
+      <c r="F529" t="n">
+        <v>369.9866666666667</v>
+      </c>
+      <c r="G529" t="n">
+        <v>375.3645454545455</v>
+      </c>
+      <c r="H529" t="n">
+        <v>378.4985714285714</v>
+      </c>
+      <c r="I529" t="n">
+        <v>381.5545454545455</v>
+      </c>
+      <c r="J529" t="n">
+        <v>378.9045454545454</v>
+      </c>
+      <c r="K529" t="n">
+        <v>395.25</v>
+      </c>
+      <c r="L529" t="n">
+        <v>404.9655555555556</v>
+      </c>
+      <c r="M529" t="n">
+        <v>394.9655555555556</v>
+      </c>
+      <c r="N529" t="n">
+        <v>394.45</v>
+      </c>
+      <c r="O529" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>365.4885714285714</v>
+      </c>
+      <c r="C530" t="n">
+        <v>334.3833333333333</v>
+      </c>
+      <c r="D530" t="n">
+        <v>344.2809090909091</v>
+      </c>
+      <c r="E530" t="n">
+        <v>347.23</v>
+      </c>
+      <c r="F530" t="n">
+        <v>356.78</v>
+      </c>
+      <c r="G530" t="n">
+        <v>363.4709090909091</v>
+      </c>
+      <c r="H530" t="n">
+        <v>364.5942857142857</v>
+      </c>
+      <c r="I530" t="n">
+        <v>361.6509090909091</v>
+      </c>
+      <c r="J530" t="n">
+        <v>376.7909090909091</v>
+      </c>
+      <c r="K530" t="n">
+        <v>375.08</v>
+      </c>
+      <c r="L530" t="n">
+        <v>376.5233333333333</v>
+      </c>
+      <c r="M530" t="n">
+        <v>379.1733333333333</v>
+      </c>
+      <c r="N530" t="n">
+        <v>398.1423076923077</v>
+      </c>
+      <c r="O530" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24888,7 +25041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B544"/>
+  <dimension ref="A1:B547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30336,6 +30489,36 @@
       </c>
       <c r="B544" t="n">
         <v>-0.65</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>-0.93</v>
       </c>
     </row>
   </sheetData>
@@ -30509,28 +30692,28 @@
         <v>0.0359</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.171799986437301</v>
+        <v>-0.176307649652742</v>
       </c>
       <c r="J2" t="n">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="K2" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01309370153778799</v>
+        <v>0.01395429747046883</v>
       </c>
       <c r="M2" t="n">
-        <v>8.736880770654793</v>
+        <v>8.700114366419152</v>
       </c>
       <c r="N2" t="n">
-        <v>125.5610291204234</v>
+        <v>124.7977329297022</v>
       </c>
       <c r="O2" t="n">
-        <v>11.20540178308763</v>
+        <v>11.1712905668818</v>
       </c>
       <c r="P2" t="n">
-        <v>370.1839437564716</v>
+        <v>370.2287352220176</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30587,28 +30770,28 @@
         <v>0.0459</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08051401732935271</v>
+        <v>0.06764684278904158</v>
       </c>
       <c r="J3" t="n">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="K3" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003433103590776421</v>
+        <v>0.002432474494906467</v>
       </c>
       <c r="M3" t="n">
-        <v>7.814661210213107</v>
+        <v>7.829140343217487</v>
       </c>
       <c r="N3" t="n">
-        <v>104.8007396341904</v>
+        <v>105.2150679422432</v>
       </c>
       <c r="O3" t="n">
-        <v>10.2372232384661</v>
+        <v>10.25743963873262</v>
       </c>
       <c r="P3" t="n">
-        <v>353.7651267895142</v>
+        <v>353.8943753234658</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30665,28 +30848,28 @@
         <v>0.0615</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2515664651774198</v>
+        <v>0.2421587362653714</v>
       </c>
       <c r="J4" t="n">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="K4" t="n">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03474178257761251</v>
+        <v>0.03251760793764158</v>
       </c>
       <c r="M4" t="n">
-        <v>7.469372008864746</v>
+        <v>7.461276841230642</v>
       </c>
       <c r="N4" t="n">
-        <v>96.56961421618584</v>
+        <v>96.46937488836249</v>
       </c>
       <c r="O4" t="n">
-        <v>9.826983983714731</v>
+        <v>9.821882451361475</v>
       </c>
       <c r="P4" t="n">
-        <v>351.6026695965031</v>
+        <v>351.6976238726863</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30743,28 +30926,28 @@
         <v>0.0664</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2965585549067504</v>
+        <v>0.2866875388404082</v>
       </c>
       <c r="J5" t="n">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="K5" t="n">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05579022324396188</v>
+        <v>0.05253918031185767</v>
       </c>
       <c r="M5" t="n">
-        <v>7.020001827868017</v>
+        <v>7.026022941583972</v>
       </c>
       <c r="N5" t="n">
-        <v>83.55127597570819</v>
+        <v>83.76211649472623</v>
       </c>
       <c r="O5" t="n">
-        <v>9.140638707207948</v>
+        <v>9.152164579744303</v>
       </c>
       <c r="P5" t="n">
-        <v>357.2062115943395</v>
+        <v>357.3039404196945</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30821,28 +31004,28 @@
         <v>0.0624</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2736736765417668</v>
+        <v>0.2657865805588188</v>
       </c>
       <c r="J6" t="n">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="K6" t="n">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04762099965658884</v>
+        <v>0.04537347949956827</v>
       </c>
       <c r="M6" t="n">
-        <v>7.108532082884517</v>
+        <v>7.108060248173999</v>
       </c>
       <c r="N6" t="n">
-        <v>85.14340135253977</v>
+        <v>85.04364770473229</v>
       </c>
       <c r="O6" t="n">
-        <v>9.227318210213614</v>
+        <v>9.221911282631833</v>
       </c>
       <c r="P6" t="n">
-        <v>361.9002439698967</v>
+        <v>361.9777149845777</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30899,28 +31082,28 @@
         <v>0.0571</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2244311724833548</v>
+        <v>0.2170259389057233</v>
       </c>
       <c r="J7" t="n">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="K7" t="n">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03431771594505573</v>
+        <v>0.03242483091298598</v>
       </c>
       <c r="M7" t="n">
-        <v>6.8496168128175</v>
+        <v>6.843070430510713</v>
       </c>
       <c r="N7" t="n">
-        <v>79.97709720968467</v>
+        <v>79.83463921993905</v>
       </c>
       <c r="O7" t="n">
-        <v>8.942991513452569</v>
+        <v>8.935023179597188</v>
       </c>
       <c r="P7" t="n">
-        <v>369.4536042600554</v>
+        <v>369.5267374252138</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30977,28 +31160,28 @@
         <v>0.0736</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2367526156687317</v>
+        <v>0.2364059735010691</v>
       </c>
       <c r="J8" t="n">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="K8" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0362061030283285</v>
+        <v>0.03648243212688485</v>
       </c>
       <c r="M8" t="n">
-        <v>6.66957148227799</v>
+        <v>6.658185129051877</v>
       </c>
       <c r="N8" t="n">
-        <v>82.93610335949919</v>
+        <v>82.60246755331863</v>
       </c>
       <c r="O8" t="n">
-        <v>9.106926120239429</v>
+        <v>9.088589965078116</v>
       </c>
       <c r="P8" t="n">
-        <v>365.3572231709474</v>
+        <v>365.3607007096972</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31055,28 +31238,28 @@
         <v>0.0569</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2638175063653794</v>
+        <v>0.2591114375268478</v>
       </c>
       <c r="J9" t="n">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="K9" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0464787465322648</v>
+        <v>0.04518576125535179</v>
       </c>
       <c r="M9" t="n">
-        <v>6.816891684565965</v>
+        <v>6.83186123523109</v>
       </c>
       <c r="N9" t="n">
-        <v>79.5433369766224</v>
+        <v>79.56658542900016</v>
       </c>
       <c r="O9" t="n">
-        <v>8.918707135937495</v>
+        <v>8.920010393996195</v>
       </c>
       <c r="P9" t="n">
-        <v>367.2424219341932</v>
+        <v>367.2893413115414</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31133,28 +31316,28 @@
         <v>0.0579</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2549872188497087</v>
+        <v>0.2483220501953152</v>
       </c>
       <c r="J10" t="n">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="K10" t="n">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04610274720008334</v>
+        <v>0.04428749653628961</v>
       </c>
       <c r="M10" t="n">
-        <v>6.586595655566424</v>
+        <v>6.575919140509837</v>
       </c>
       <c r="N10" t="n">
-        <v>74.23455522515992</v>
+        <v>73.91544302611234</v>
       </c>
       <c r="O10" t="n">
-        <v>8.615947726463986</v>
+        <v>8.597409087981816</v>
       </c>
       <c r="P10" t="n">
-        <v>375.4842874905049</v>
+        <v>375.5516851354072</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31211,28 +31394,28 @@
         <v>0.0548</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2046095298654285</v>
+        <v>0.2012533147628585</v>
       </c>
       <c r="J11" t="n">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="K11" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03235392985675423</v>
+        <v>0.03151357538742994</v>
       </c>
       <c r="M11" t="n">
-        <v>6.451978380840142</v>
+        <v>6.457526127421381</v>
       </c>
       <c r="N11" t="n">
-        <v>68.71115449955131</v>
+        <v>68.75672747828206</v>
       </c>
       <c r="O11" t="n">
-        <v>8.289219173091716</v>
+        <v>8.291967648169043</v>
       </c>
       <c r="P11" t="n">
-        <v>383.1441609489632</v>
+        <v>383.178254260779</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31289,28 +31472,28 @@
         <v>0.0504</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2146844971515405</v>
+        <v>0.2187732653676443</v>
       </c>
       <c r="J12" t="n">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="K12" t="n">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03048655416190393</v>
+        <v>0.03165052543861546</v>
       </c>
       <c r="M12" t="n">
-        <v>6.805911686228082</v>
+        <v>6.830777497026709</v>
       </c>
       <c r="N12" t="n">
-        <v>80.08391131082644</v>
+        <v>80.53111275056169</v>
       </c>
       <c r="O12" t="n">
-        <v>8.948961465490084</v>
+        <v>8.973912900767518</v>
       </c>
       <c r="P12" t="n">
-        <v>382.1070601087293</v>
+        <v>382.0654306542934</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31367,28 +31550,28 @@
         <v>0.0458</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1977572031692116</v>
+        <v>0.1963687571502141</v>
       </c>
       <c r="J13" t="n">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="K13" t="n">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0248563316820144</v>
+        <v>0.02474953739418595</v>
       </c>
       <c r="M13" t="n">
-        <v>7.323928574188844</v>
+        <v>7.314940685970363</v>
       </c>
       <c r="N13" t="n">
-        <v>84.78064101045598</v>
+        <v>84.51395322471683</v>
       </c>
       <c r="O13" t="n">
-        <v>9.20764036061661</v>
+        <v>9.193147079467229</v>
       </c>
       <c r="P13" t="n">
-        <v>384.6289639926779</v>
+        <v>384.6431384057142</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31445,28 +31628,28 @@
         <v>0.0742</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2766188911570178</v>
+        <v>0.2871472307199804</v>
       </c>
       <c r="J14" t="n">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="K14" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04060189472869979</v>
+        <v>0.04401697143960059</v>
       </c>
       <c r="M14" t="n">
-        <v>7.581985887897247</v>
+        <v>7.574422329105593</v>
       </c>
       <c r="N14" t="n">
-        <v>104.2783566192214</v>
+        <v>103.9713868092861</v>
       </c>
       <c r="O14" t="n">
-        <v>10.21167746353269</v>
+        <v>10.19663605358581</v>
       </c>
       <c r="P14" t="n">
-        <v>383.572536443017</v>
+        <v>383.4683720171117</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31504,7 +31687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O527"/>
+  <dimension ref="A1:O530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67167,6 +67350,237 @@
         </is>
       </c>
     </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>-35.02876974413868,173.91639595832456</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>-35.02930723542193,173.91577230107973</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>-35.02989997933402,173.91523573975203</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>-35.030550344207214,173.9147993091529</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>-35.03121571773665,173.91440587418973</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>-35.031909133067664,173.91413129479628</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>-35.03262840441118,173.91397459261484</t>
+        </is>
+      </c>
+      <c r="I528" t="inlineStr">
+        <is>
+          <t>-35.033345451162,173.9137665828624</t>
+        </is>
+      </c>
+      <c r="J528" t="inlineStr">
+        <is>
+          <t>-35.03407547864747,173.91362661645692</t>
+        </is>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>-35.03480401311227,173.9135394256006</t>
+        </is>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>-35.035524032941936,173.91345713062887</t>
+        </is>
+      </c>
+      <c r="M528" t="inlineStr">
+        <is>
+          <t>-35.036238240010384,173.91335434543444</t>
+        </is>
+      </c>
+      <c r="N528" t="inlineStr">
+        <is>
+          <t>-35.03695896688012,173.91345568336715</t>
+        </is>
+      </c>
+      <c r="O528" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>-35.0287724158503,173.9164003924404</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>-35.02932092305387,173.91579501776033</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>-35.02993557464342,173.91529723795597</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>-35.030579310337,173.91485905510532</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>-35.03125002554319,173.91449499873747</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>-35.03192584352236,173.91419798761112</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>-35.03264208894496,173.91406064912204</t>
+        </is>
+      </c>
+      <c r="I529" t="inlineStr">
+        <is>
+          <t>-35.03337214225797,173.91391434003395</t>
+        </is>
+      </c>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>-35.0340836432131,173.9136674118312</t>
+        </is>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>-35.03481766003702,173.91362710353445</t>
+        </is>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>-35.035540206516565,173.91360899690895</t>
+        </is>
+      </c>
+      <c r="M529" t="inlineStr">
+        <is>
+          <t>-35.03623997328886,173.91338715345185</t>
+        </is>
+      </c>
+      <c r="N529" t="inlineStr">
+        <is>
+          <t>-35.03695854667731,173.91337122153155</t>
+        </is>
+      </c>
+      <c r="O529" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>-35.02879687989146,173.916440994301</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>-35.02922164618078,173.91563025321778</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>-35.0298674784204,173.91517958784695</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>-35.03049778388195,173.91469089774202</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>-35.03119955113106,173.9143638767955</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>-35.03189459379535,173.91407326749302</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>-35.03261829194863,173.9139109996873</t>
+        </is>
+      </c>
+      <c r="I530" t="inlineStr">
+        <is>
+          <t>-35.03333364583278,173.91370123100447</t>
+        </is>
+      </c>
+      <c r="J530" t="inlineStr">
+        <is>
+          <t>-35.03407913749085,173.91364489836116</t>
+        </is>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>-35.03478384438301,173.91340984757466</t>
+        </is>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>-35.035507275105736,173.9132997802131</t>
+        </is>
+      </c>
+      <c r="M530" t="inlineStr">
+        <is>
+          <t>-35.036230845702114,173.9132143856433</t>
+        </is>
+      </c>
+      <c r="N530" t="inlineStr">
+        <is>
+          <t>-35.03695874805981,173.91341169844964</t>
+        </is>
+      </c>
+      <c r="O530" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0053/nzd0053.xlsx
+++ b/data/nzd0053/nzd0053.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O530"/>
+  <dimension ref="A1:O534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25030,6 +25030,196 @@
         </is>
       </c>
     </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr"/>
+      <c r="C531" t="inlineStr"/>
+      <c r="D531" t="inlineStr"/>
+      <c r="E531" t="inlineStr"/>
+      <c r="F531" t="inlineStr"/>
+      <c r="G531" t="inlineStr"/>
+      <c r="H531" t="inlineStr"/>
+      <c r="I531" t="n">
+        <v>359.8063636363636</v>
+      </c>
+      <c r="J531" t="n">
+        <v>366.4963636363637</v>
+      </c>
+      <c r="K531" t="n">
+        <v>377.72</v>
+      </c>
+      <c r="L531" t="n">
+        <v>366.88</v>
+      </c>
+      <c r="M531" t="n">
+        <v>375.96</v>
+      </c>
+      <c r="N531" t="n">
+        <v>397.9538461538461</v>
+      </c>
+      <c r="O531" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>354.14</v>
+      </c>
+      <c r="C532" t="n">
+        <v>354.6133333333333</v>
+      </c>
+      <c r="D532" t="n">
+        <v>351.4763636363636</v>
+      </c>
+      <c r="E532" t="n">
+        <v>370.15</v>
+      </c>
+      <c r="F532" t="n">
+        <v>369.28</v>
+      </c>
+      <c r="G532" t="n">
+        <v>377.2163636363636</v>
+      </c>
+      <c r="H532" t="n">
+        <v>369.05</v>
+      </c>
+      <c r="I532" t="n">
+        <v>375.8963636363636</v>
+      </c>
+      <c r="J532" t="n">
+        <v>384.4863636363637</v>
+      </c>
+      <c r="K532" t="n">
+        <v>392.63</v>
+      </c>
+      <c r="L532" t="n">
+        <v>389.8033333333333</v>
+      </c>
+      <c r="M532" t="n">
+        <v>394.5733333333333</v>
+      </c>
+      <c r="N532" t="n">
+        <v>389.8715384615385</v>
+      </c>
+      <c r="O532" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>368.8671428571428</v>
+      </c>
+      <c r="C533" t="n">
+        <v>363.2666666666667</v>
+      </c>
+      <c r="D533" t="n">
+        <v>353.44</v>
+      </c>
+      <c r="E533" t="n">
+        <v>364.19</v>
+      </c>
+      <c r="F533" t="n">
+        <v>371.74</v>
+      </c>
+      <c r="G533" t="n">
+        <v>374.19</v>
+      </c>
+      <c r="H533" t="n">
+        <v>379.8185714285714</v>
+      </c>
+      <c r="I533" t="n">
+        <v>381.88</v>
+      </c>
+      <c r="J533" t="n">
+        <v>379.13</v>
+      </c>
+      <c r="K533" t="n">
+        <v>394.03</v>
+      </c>
+      <c r="L533" t="n">
+        <v>388.0366666666667</v>
+      </c>
+      <c r="M533" t="n">
+        <v>397.8766666666667</v>
+      </c>
+      <c r="N533" t="n">
+        <v>401.1738461538461</v>
+      </c>
+      <c r="O533" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>348.2128571428572</v>
+      </c>
+      <c r="C534" t="n">
+        <v>342.36</v>
+      </c>
+      <c r="D534" t="n">
+        <v>344.8181818181818</v>
+      </c>
+      <c r="E534" t="n">
+        <v>353.37</v>
+      </c>
+      <c r="F534" t="n">
+        <v>356.09</v>
+      </c>
+      <c r="G534" t="n">
+        <v>364.7181818181818</v>
+      </c>
+      <c r="H534" t="n">
+        <v>366.5714285714286</v>
+      </c>
+      <c r="I534" t="n">
+        <v>363.8681818181818</v>
+      </c>
+      <c r="J534" t="n">
+        <v>377.6581818181818</v>
+      </c>
+      <c r="K534" t="n">
+        <v>378.95</v>
+      </c>
+      <c r="L534" t="n">
+        <v>375.92</v>
+      </c>
+      <c r="M534" t="n">
+        <v>381.89</v>
+      </c>
+      <c r="N534" t="n">
+        <v>399.9769230769231</v>
+      </c>
+      <c r="O534" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25041,7 +25231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B547"/>
+  <dimension ref="A1:B551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30519,6 +30709,46 @@
       </c>
       <c r="B547" t="n">
         <v>-0.93</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>-0.45</v>
       </c>
     </row>
   </sheetData>
@@ -30692,28 +30922,28 @@
         <v>0.0359</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.176307649652742</v>
+        <v>-0.1872817152331227</v>
       </c>
       <c r="J2" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K2" t="n">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01395429747046883</v>
+        <v>0.01579851261785681</v>
       </c>
       <c r="M2" t="n">
-        <v>8.700114366419152</v>
+        <v>8.715092681528505</v>
       </c>
       <c r="N2" t="n">
-        <v>124.7977329297022</v>
+        <v>124.9575413606798</v>
       </c>
       <c r="O2" t="n">
-        <v>11.1712905668818</v>
+        <v>11.1784409181549</v>
       </c>
       <c r="P2" t="n">
-        <v>370.2287352220176</v>
+        <v>370.3383122175156</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30770,28 +31000,28 @@
         <v>0.0459</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06764684278904158</v>
+        <v>0.06477092697703907</v>
       </c>
       <c r="J3" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K3" t="n">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002432474494906467</v>
+        <v>0.00224904810083626</v>
       </c>
       <c r="M3" t="n">
-        <v>7.829140343217487</v>
+        <v>7.825441187308245</v>
       </c>
       <c r="N3" t="n">
-        <v>105.2150679422432</v>
+        <v>105.0288906747671</v>
       </c>
       <c r="O3" t="n">
-        <v>10.25743963873262</v>
+        <v>10.24836038958267</v>
       </c>
       <c r="P3" t="n">
-        <v>353.8943753234658</v>
+        <v>353.9234304462108</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30848,28 +31078,28 @@
         <v>0.0615</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2421587362653714</v>
+        <v>0.2319780601279174</v>
       </c>
       <c r="J4" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K4" t="n">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03251760793764158</v>
+        <v>0.03015271175422807</v>
       </c>
       <c r="M4" t="n">
-        <v>7.461276841230642</v>
+        <v>7.4574184690259</v>
       </c>
       <c r="N4" t="n">
-        <v>96.46937488836249</v>
+        <v>96.34041496722817</v>
       </c>
       <c r="O4" t="n">
-        <v>9.821882451361475</v>
+        <v>9.815315326938212</v>
       </c>
       <c r="P4" t="n">
-        <v>351.6976238726863</v>
+        <v>351.8007971422351</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30926,28 +31156,28 @@
         <v>0.0664</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2866875388404082</v>
+        <v>0.2839946405177773</v>
       </c>
       <c r="J5" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K5" t="n">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05253918031185767</v>
+        <v>0.05205390836321799</v>
       </c>
       <c r="M5" t="n">
-        <v>7.026022941583972</v>
+        <v>7.017894209410762</v>
       </c>
       <c r="N5" t="n">
-        <v>83.76211649472623</v>
+        <v>83.5573647165518</v>
       </c>
       <c r="O5" t="n">
-        <v>9.152164579744303</v>
+        <v>9.140971759969057</v>
       </c>
       <c r="P5" t="n">
-        <v>357.3039404196945</v>
+        <v>357.3308026855004</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31004,28 +31234,28 @@
         <v>0.0624</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2657865805588188</v>
+        <v>0.2619137007449665</v>
       </c>
       <c r="J6" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K6" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04537347949956827</v>
+        <v>0.04448638910655678</v>
       </c>
       <c r="M6" t="n">
-        <v>7.108060248173999</v>
+        <v>7.096651575049485</v>
       </c>
       <c r="N6" t="n">
-        <v>85.04364770473229</v>
+        <v>84.85836440843987</v>
       </c>
       <c r="O6" t="n">
-        <v>9.221911282631833</v>
+        <v>9.211859986367568</v>
       </c>
       <c r="P6" t="n">
-        <v>361.9777149845777</v>
+        <v>362.0159775752421</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31082,28 +31312,28 @@
         <v>0.0571</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2170259389057233</v>
+        <v>0.2132062395820302</v>
       </c>
       <c r="J7" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K7" t="n">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03242483091298598</v>
+        <v>0.03163384399714875</v>
       </c>
       <c r="M7" t="n">
-        <v>6.843070430510713</v>
+        <v>6.826972876833595</v>
       </c>
       <c r="N7" t="n">
-        <v>79.83463921993905</v>
+        <v>79.5572785590992</v>
       </c>
       <c r="O7" t="n">
-        <v>8.935023179597188</v>
+        <v>8.919488693815314</v>
       </c>
       <c r="P7" t="n">
-        <v>369.5267374252138</v>
+        <v>369.5646790223322</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31160,28 +31390,28 @@
         <v>0.0736</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2364059735010691</v>
+        <v>0.2368124490501494</v>
       </c>
       <c r="J8" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K8" t="n">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03648243212688485</v>
+        <v>0.03697991297872649</v>
       </c>
       <c r="M8" t="n">
-        <v>6.658185129051877</v>
+        <v>6.648835611361195</v>
       </c>
       <c r="N8" t="n">
-        <v>82.60246755331863</v>
+        <v>82.27726658070438</v>
       </c>
       <c r="O8" t="n">
-        <v>9.088589965078116</v>
+        <v>9.070681704298988</v>
       </c>
       <c r="P8" t="n">
-        <v>365.3607007096972</v>
+        <v>365.3566392737715</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31238,28 +31468,28 @@
         <v>0.0569</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2591114375268478</v>
+        <v>0.2531458709765173</v>
       </c>
       <c r="J9" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K9" t="n">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04518576125535179</v>
+        <v>0.04352145624810944</v>
       </c>
       <c r="M9" t="n">
-        <v>6.83186123523109</v>
+        <v>6.850120791615596</v>
       </c>
       <c r="N9" t="n">
-        <v>79.56658542900016</v>
+        <v>79.67708237642677</v>
       </c>
       <c r="O9" t="n">
-        <v>8.920010393996195</v>
+        <v>8.926202012974318</v>
       </c>
       <c r="P9" t="n">
-        <v>367.2893413115414</v>
+        <v>367.3489161606925</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31316,28 +31546,28 @@
         <v>0.0579</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2483220501953152</v>
+        <v>0.239811878797954</v>
       </c>
       <c r="J10" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K10" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04428749653628961</v>
+        <v>0.04179943506051886</v>
       </c>
       <c r="M10" t="n">
-        <v>6.575919140509837</v>
+        <v>6.572003607321607</v>
       </c>
       <c r="N10" t="n">
-        <v>73.91544302611234</v>
+        <v>73.85640764084089</v>
       </c>
       <c r="O10" t="n">
-        <v>8.597409087981816</v>
+        <v>8.593975077974155</v>
       </c>
       <c r="P10" t="n">
-        <v>375.5516851354072</v>
+        <v>375.6379584575097</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31394,28 +31624,28 @@
         <v>0.0548</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2012533147628585</v>
+        <v>0.1969829940157322</v>
       </c>
       <c r="J11" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K11" t="n">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03151357538742994</v>
+        <v>0.03050245838783494</v>
       </c>
       <c r="M11" t="n">
-        <v>6.457526127421381</v>
+        <v>6.468129692890113</v>
       </c>
       <c r="N11" t="n">
-        <v>68.75672747828206</v>
+        <v>68.70476315541541</v>
       </c>
       <c r="O11" t="n">
-        <v>8.291967648169043</v>
+        <v>8.288833642643301</v>
       </c>
       <c r="P11" t="n">
-        <v>383.178254260779</v>
+        <v>383.2216878662919</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31472,28 +31702,28 @@
         <v>0.0504</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2187732653676443</v>
+        <v>0.2060200112410705</v>
       </c>
       <c r="J12" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K12" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03165052543861546</v>
+        <v>0.02820577336176233</v>
       </c>
       <c r="M12" t="n">
-        <v>6.830777497026709</v>
+        <v>6.853152798509949</v>
       </c>
       <c r="N12" t="n">
-        <v>80.53111275056169</v>
+        <v>81.10244955718609</v>
       </c>
       <c r="O12" t="n">
-        <v>8.973912900767518</v>
+        <v>9.005689843492618</v>
       </c>
       <c r="P12" t="n">
-        <v>382.0654306542934</v>
+        <v>382.1958583059736</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31550,28 +31780,28 @@
         <v>0.0458</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1963687571502141</v>
+        <v>0.1926420910555617</v>
       </c>
       <c r="J13" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K13" t="n">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02474953739418595</v>
+        <v>0.02403654890255669</v>
       </c>
       <c r="M13" t="n">
-        <v>7.314940685970363</v>
+        <v>7.329191482309078</v>
       </c>
       <c r="N13" t="n">
-        <v>84.51395322471683</v>
+        <v>84.51915093019483</v>
       </c>
       <c r="O13" t="n">
-        <v>9.193147079467229</v>
+        <v>9.193429769688505</v>
       </c>
       <c r="P13" t="n">
-        <v>384.6431384057142</v>
+        <v>384.6810667653932</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31628,28 +31858,28 @@
         <v>0.0742</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2871472307199804</v>
+        <v>0.2987125718915902</v>
       </c>
       <c r="J14" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K14" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04401697143960059</v>
+        <v>0.04805961827919369</v>
       </c>
       <c r="M14" t="n">
-        <v>7.574422329105593</v>
+        <v>7.559389609373272</v>
       </c>
       <c r="N14" t="n">
-        <v>103.9713868092861</v>
+        <v>103.4970800819647</v>
       </c>
       <c r="O14" t="n">
-        <v>10.19663605358581</v>
+        <v>10.17335146753344</v>
       </c>
       <c r="P14" t="n">
-        <v>383.4683720171117</v>
+        <v>383.3534279471316</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31687,7 +31917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O530"/>
+  <dimension ref="A1:O534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67581,6 +67811,286 @@
         </is>
       </c>
     </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr"/>
+      <c r="C531" t="inlineStr"/>
+      <c r="D531" t="inlineStr"/>
+      <c r="E531" t="inlineStr"/>
+      <c r="F531" t="inlineStr"/>
+      <c r="G531" t="inlineStr"/>
+      <c r="H531" t="inlineStr"/>
+      <c r="I531" t="inlineStr">
+        <is>
+          <t>-35.03333007820396,173.91368148139233</t>
+        </is>
+      </c>
+      <c r="J531" t="inlineStr">
+        <is>
+          <t>-35.03405719214073,173.91353524569215</t>
+        </is>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>-35.03478827045025,173.91343828364498</t>
+        </is>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>-35.035496109533526,173.91319494036767</t>
+        </is>
+      </c>
+      <c r="M531" t="inlineStr">
+        <is>
+          <t>-35.036228988429905,173.91317923159804</t>
+        </is>
+      </c>
+      <c r="N531" t="inlineStr">
+        <is>
+          <t>-35.03695873778123,173.91340963244025</t>
+        </is>
+      </c>
+      <c r="O531" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>-35.02873641242876,173.91634063927924</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>-35.02932943637981,173.91580914691062</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>-35.02990481437329,173.91524409326857</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>-35.030602721296525,173.9149073429604</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>-35.0312473247454,173.9144879826174</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>-35.03193070903799,173.9142174063216</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>-35.03262591786342,173.91395895576446</t>
+        </is>
+      </c>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>-35.03336119857893,173.91385375763574</t>
+        </is>
+      </c>
+      <c r="J532" t="inlineStr">
+        <is>
+          <t>-35.03409554217544,173.91372686676996</t>
+        </is>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>-35.03481326754486,173.91359888286968</t>
+        </is>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>-35.035522651258,173.9134441570087</t>
+        </is>
+      </c>
+      <c r="M532" t="inlineStr">
+        <is>
+          <t>-35.03623974659529,173.91338286251803</t>
+        </is>
+      </c>
+      <c r="N532" t="inlineStr">
+        <is>
+          <t>-35.03695829694425,173.91332103015299</t>
+        </is>
+      </c>
+      <c r="O532" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>-35.02881488158045,173.9164708709188</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>-35.02937554329213,173.91588566839556</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>-35.029915003332164,173.9152616967797</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>-35.030575433944136,173.91485105959612</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>-35.031256726577446,173.9145124066599</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>-35.03192275748921,173.91418567098296</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>-35.03264434809739,173.91407485605924</t>
+        </is>
+      </c>
+      <c r="I533" t="inlineStr">
+        <is>
+          <t>-35.0333727717296,173.91391782469034</t>
+        </is>
+      </c>
+      <c r="J533" t="inlineStr">
+        <is>
+          <t>-35.03408412382322,173.91366981326814</t>
+        </is>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>-35.0348156146789,173.91361396261385</t>
+        </is>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>-35.0355206057457,173.91342495025341</t>
+        </is>
+      </c>
+      <c r="M533" t="inlineStr">
+        <is>
+          <t>-35.0362416558256,173.9134190011764</t>
+        </is>
+      </c>
+      <c r="N533" t="inlineStr">
+        <is>
+          <t>-35.03695891339312,173.91344493168583</t>
+        </is>
+      </c>
+      <c r="O533" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>-35.02870483138977,173.9162882258199</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>-35.02926414776986,173.91570079074762</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>-35.029870266235676,173.9151844043584</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>-35.030525895427175,173.91474888083144</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>-35.031196914023774,173.91435702615829</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>-35.03189787092638,173.91408634675201</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>-35.03262167581315,173.9139322793306</t>
+        </is>
+      </c>
+      <c r="I534" t="inlineStr">
+        <is>
+          <t>-35.033337934368014,173.91372497142262</t>
+        </is>
+      </c>
+      <c r="J534" t="inlineStr">
+        <is>
+          <t>-35.03408098629094,173.913654136146</t>
+        </is>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>-35.03479033259291,173.91345153226965</t>
+        </is>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>-35.03550657653649,173.91329322092713</t>
+        </is>
+      </c>
+      <c r="M534" t="inlineStr">
+        <is>
+          <t>-35.03623241589837,173.91324410612867</t>
+        </is>
+      </c>
+      <c r="N534" t="inlineStr">
+        <is>
+          <t>-35.03695884811671,173.91343181041825</t>
+        </is>
+      </c>
+      <c r="O534" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0053/nzd0053.xlsx
+++ b/data/nzd0053/nzd0053.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O534"/>
+  <dimension ref="A1:O539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25220,6 +25220,259 @@
         </is>
       </c>
     </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>355.5957142857143</v>
+      </c>
+      <c r="C535" t="n">
+        <v>343.0222222222222</v>
+      </c>
+      <c r="D535" t="n">
+        <v>344.7418181818182</v>
+      </c>
+      <c r="E535" t="n">
+        <v>359.5266666666667</v>
+      </c>
+      <c r="F535" t="n">
+        <v>368.4066666666667</v>
+      </c>
+      <c r="G535" t="n">
+        <v>371.6118181818182</v>
+      </c>
+      <c r="H535" t="n">
+        <v>372.7228571428572</v>
+      </c>
+      <c r="I535" t="n">
+        <v>368.1718181818182</v>
+      </c>
+      <c r="J535" t="n">
+        <v>382.8718181818182</v>
+      </c>
+      <c r="K535" t="n">
+        <v>381.33</v>
+      </c>
+      <c r="L535" t="n">
+        <v>384.7922222222222</v>
+      </c>
+      <c r="M535" t="n">
+        <v>386.6822222222222</v>
+      </c>
+      <c r="N535" t="n">
+        <v>390.9438461538462</v>
+      </c>
+      <c r="O535" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>358.3585714285715</v>
+      </c>
+      <c r="C536" t="n">
+        <v>355.4166666666667</v>
+      </c>
+      <c r="D536" t="n">
+        <v>355.0118181818182</v>
+      </c>
+      <c r="E536" t="n">
+        <v>367.78</v>
+      </c>
+      <c r="F536" t="n">
+        <v>364.96</v>
+      </c>
+      <c r="G536" t="n">
+        <v>372.1118181818182</v>
+      </c>
+      <c r="H536" t="n">
+        <v>376.0142857142857</v>
+      </c>
+      <c r="I536" t="n">
+        <v>376.8418181818182</v>
+      </c>
+      <c r="J536" t="n">
+        <v>376.4118181818182</v>
+      </c>
+      <c r="K536" t="n">
+        <v>390.25</v>
+      </c>
+      <c r="L536" t="n">
+        <v>390.6666666666667</v>
+      </c>
+      <c r="M536" t="n">
+        <v>387.7666666666667</v>
+      </c>
+      <c r="N536" t="n">
+        <v>387.6961538461539</v>
+      </c>
+      <c r="O536" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>363.3857142857143</v>
+      </c>
+      <c r="C537" t="n">
+        <v>350.1055555555556</v>
+      </c>
+      <c r="D537" t="n">
+        <v>356.9936363636364</v>
+      </c>
+      <c r="E537" t="n">
+        <v>361.7466666666666</v>
+      </c>
+      <c r="F537" t="n">
+        <v>368.3366666666667</v>
+      </c>
+      <c r="G537" t="n">
+        <v>369.2636363636364</v>
+      </c>
+      <c r="H537" t="n">
+        <v>377.7928571428571</v>
+      </c>
+      <c r="I537" t="n">
+        <v>368.6136363636364</v>
+      </c>
+      <c r="J537" t="n">
+        <v>381.6036363636364</v>
+      </c>
+      <c r="K537" t="n">
+        <v>392.84</v>
+      </c>
+      <c r="L537" t="n">
+        <v>386.5955555555556</v>
+      </c>
+      <c r="M537" t="n">
+        <v>388.3055555555555</v>
+      </c>
+      <c r="N537" t="n">
+        <v>393.9430769230769</v>
+      </c>
+      <c r="O537" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>353.5728571428572</v>
+      </c>
+      <c r="C538" t="n">
+        <v>349.0022222222222</v>
+      </c>
+      <c r="D538" t="n">
+        <v>342.7390909090909</v>
+      </c>
+      <c r="E538" t="n">
+        <v>363.4666666666667</v>
+      </c>
+      <c r="F538" t="n">
+        <v>359.7166666666667</v>
+      </c>
+      <c r="G538" t="n">
+        <v>367.2090909090909</v>
+      </c>
+      <c r="H538" t="n">
+        <v>372.2614285714286</v>
+      </c>
+      <c r="I538" t="n">
+        <v>369.2090909090909</v>
+      </c>
+      <c r="J538" t="n">
+        <v>371.4290909090909</v>
+      </c>
+      <c r="K538" t="n">
+        <v>385.28</v>
+      </c>
+      <c r="L538" t="n">
+        <v>384.2422222222222</v>
+      </c>
+      <c r="M538" t="n">
+        <v>384.0122222222223</v>
+      </c>
+      <c r="N538" t="n">
+        <v>391.0046153846154</v>
+      </c>
+      <c r="O538" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr"/>
+      <c r="C539" t="n">
+        <v>350.5011111111111</v>
+      </c>
+      <c r="D539" t="n">
+        <v>379.3245454545454</v>
+      </c>
+      <c r="E539" t="n">
+        <v>398.9933333333333</v>
+      </c>
+      <c r="F539" t="n">
+        <v>359.4733333333333</v>
+      </c>
+      <c r="G539" t="n">
+        <v>355.1145454545455</v>
+      </c>
+      <c r="H539" t="n">
+        <v>359.5842857142857</v>
+      </c>
+      <c r="I539" t="n">
+        <v>354.4845454545454</v>
+      </c>
+      <c r="J539" t="n">
+        <v>367.3645454545455</v>
+      </c>
+      <c r="K539" t="n">
+        <v>377.16</v>
+      </c>
+      <c r="L539" t="n">
+        <v>368.7911111111111</v>
+      </c>
+      <c r="M539" t="n">
+        <v>375.8611111111111</v>
+      </c>
+      <c r="N539" t="n">
+        <v>384.3069230769231</v>
+      </c>
+      <c r="O539" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25231,7 +25484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B551"/>
+  <dimension ref="A1:B556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30749,6 +31002,56 @@
       </c>
       <c r="B551" t="n">
         <v>-0.45</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>
@@ -30922,28 +31225,28 @@
         <v>0.0359</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1872817152331227</v>
+        <v>-0.2001944870754549</v>
       </c>
       <c r="J2" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K2" t="n">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01579851261785681</v>
+        <v>0.0182302407506002</v>
       </c>
       <c r="M2" t="n">
-        <v>8.715092681528505</v>
+        <v>8.706323654146095</v>
       </c>
       <c r="N2" t="n">
-        <v>124.9575413606798</v>
+        <v>124.468350410952</v>
       </c>
       <c r="O2" t="n">
-        <v>11.1784409181549</v>
+        <v>11.1565384600669</v>
       </c>
       <c r="P2" t="n">
-        <v>370.3383122175156</v>
+        <v>370.4675829658582</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31000,28 +31303,28 @@
         <v>0.0459</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06477092697703907</v>
+        <v>0.05231338198565435</v>
       </c>
       <c r="J3" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K3" t="n">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00224904810083626</v>
+        <v>0.001492532872082841</v>
       </c>
       <c r="M3" t="n">
-        <v>7.825441187308245</v>
+        <v>7.80252133985976</v>
       </c>
       <c r="N3" t="n">
-        <v>105.0288906747671</v>
+        <v>104.4031591124798</v>
       </c>
       <c r="O3" t="n">
-        <v>10.24836038958267</v>
+        <v>10.21778640961338</v>
       </c>
       <c r="P3" t="n">
-        <v>353.9234304462108</v>
+        <v>354.0493634287665</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31078,28 +31381,28 @@
         <v>0.0615</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2319780601279174</v>
+        <v>0.2277962381002633</v>
       </c>
       <c r="J4" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K4" t="n">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03015271175422807</v>
+        <v>0.02915593278156881</v>
       </c>
       <c r="M4" t="n">
-        <v>7.4574184690259</v>
+        <v>7.490471946203755</v>
       </c>
       <c r="N4" t="n">
-        <v>96.34041496722817</v>
+        <v>97.1978768159584</v>
       </c>
       <c r="O4" t="n">
-        <v>9.815315326938212</v>
+        <v>9.858898357116701</v>
       </c>
       <c r="P4" t="n">
-        <v>351.8007971422351</v>
+        <v>351.8430708050647</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31156,28 +31459,28 @@
         <v>0.0664</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2839946405177773</v>
+        <v>0.2952826580139621</v>
       </c>
       <c r="J5" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K5" t="n">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05205390836321799</v>
+        <v>0.0555078487761399</v>
       </c>
       <c r="M5" t="n">
-        <v>7.017894209410762</v>
+        <v>7.044286291886469</v>
       </c>
       <c r="N5" t="n">
-        <v>83.5573647165518</v>
+        <v>85.30491648694003</v>
       </c>
       <c r="O5" t="n">
-        <v>9.140971759969057</v>
+        <v>9.236066072031969</v>
       </c>
       <c r="P5" t="n">
-        <v>357.3308026855004</v>
+        <v>357.2180232839685</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31234,28 +31537,28 @@
         <v>0.0624</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2619137007449665</v>
+        <v>0.2527061172956144</v>
       </c>
       <c r="J6" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K6" t="n">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04448638910655678</v>
+        <v>0.04221021809043013</v>
       </c>
       <c r="M6" t="n">
-        <v>7.096651575049485</v>
+        <v>7.068771979399336</v>
       </c>
       <c r="N6" t="n">
-        <v>84.85836440843987</v>
+        <v>84.32966414225614</v>
       </c>
       <c r="O6" t="n">
-        <v>9.211859986367568</v>
+        <v>9.183118432333112</v>
       </c>
       <c r="P6" t="n">
-        <v>362.0159775752421</v>
+        <v>362.1071312977784</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31312,28 +31615,28 @@
         <v>0.0571</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2132062395820302</v>
+        <v>0.1972064191129318</v>
       </c>
       <c r="J7" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K7" t="n">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03163384399714875</v>
+        <v>0.02738670572391066</v>
       </c>
       <c r="M7" t="n">
-        <v>6.826972876833595</v>
+        <v>6.835837837554889</v>
       </c>
       <c r="N7" t="n">
-        <v>79.5572785590992</v>
+        <v>79.79490649982553</v>
       </c>
       <c r="O7" t="n">
-        <v>8.919488693815314</v>
+        <v>8.932799477197813</v>
       </c>
       <c r="P7" t="n">
-        <v>369.5646790223322</v>
+        <v>369.7239043808734</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31390,28 +31693,28 @@
         <v>0.0736</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2368124490501494</v>
+        <v>0.2371318186915076</v>
       </c>
       <c r="J8" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K8" t="n">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03697991297872649</v>
+        <v>0.03765833518176964</v>
       </c>
       <c r="M8" t="n">
-        <v>6.648835611361195</v>
+        <v>6.630335031455732</v>
       </c>
       <c r="N8" t="n">
-        <v>82.27726658070438</v>
+        <v>81.82802643381663</v>
       </c>
       <c r="O8" t="n">
-        <v>9.070681704298988</v>
+        <v>9.045884502568924</v>
       </c>
       <c r="P8" t="n">
-        <v>365.3566392737715</v>
+        <v>365.3535522235442</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31468,28 +31771,28 @@
         <v>0.0569</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2531458709765173</v>
+        <v>0.2401834816836256</v>
       </c>
       <c r="J9" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K9" t="n">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04352145624810944</v>
+        <v>0.03967793186449142</v>
       </c>
       <c r="M9" t="n">
-        <v>6.850120791615596</v>
+        <v>6.86604894232663</v>
       </c>
       <c r="N9" t="n">
-        <v>79.67708237642677</v>
+        <v>79.81936739477327</v>
       </c>
       <c r="O9" t="n">
-        <v>8.926202012974318</v>
+        <v>8.934168534047993</v>
       </c>
       <c r="P9" t="n">
-        <v>367.3489161606925</v>
+        <v>367.4791120810751</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31546,28 +31849,28 @@
         <v>0.0579</v>
       </c>
       <c r="I10" t="n">
-        <v>0.239811878797954</v>
+        <v>0.2275673805932436</v>
       </c>
       <c r="J10" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K10" t="n">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04179943506051886</v>
+        <v>0.03819809354107007</v>
       </c>
       <c r="M10" t="n">
-        <v>6.572003607321607</v>
+        <v>6.56762048452099</v>
       </c>
       <c r="N10" t="n">
-        <v>73.85640764084089</v>
+        <v>73.80017348784369</v>
       </c>
       <c r="O10" t="n">
-        <v>8.593975077974155</v>
+        <v>8.590702735390376</v>
       </c>
       <c r="P10" t="n">
-        <v>375.6379584575097</v>
+        <v>375.7628207502176</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31624,28 +31927,28 @@
         <v>0.0548</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1969829940157322</v>
+        <v>0.1909321976296496</v>
       </c>
       <c r="J11" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K11" t="n">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03050245838783494</v>
+        <v>0.02912161236745314</v>
       </c>
       <c r="M11" t="n">
-        <v>6.468129692890113</v>
+        <v>6.459535355516388</v>
       </c>
       <c r="N11" t="n">
-        <v>68.70476315541541</v>
+        <v>68.39776077836137</v>
       </c>
       <c r="O11" t="n">
-        <v>8.288833642643301</v>
+        <v>8.270293874969703</v>
       </c>
       <c r="P11" t="n">
-        <v>383.2216878662919</v>
+        <v>383.2835530188913</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31702,28 +32005,28 @@
         <v>0.0504</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2060200112410705</v>
+        <v>0.1966879544026434</v>
       </c>
       <c r="J12" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K12" t="n">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02820577336176233</v>
+        <v>0.02604668961348311</v>
       </c>
       <c r="M12" t="n">
-        <v>6.853152798509949</v>
+        <v>6.844313544418191</v>
       </c>
       <c r="N12" t="n">
-        <v>81.10244955718609</v>
+        <v>81.03990306325559</v>
       </c>
       <c r="O12" t="n">
-        <v>9.005689843492618</v>
+        <v>9.00221656389445</v>
       </c>
       <c r="P12" t="n">
-        <v>382.1958583059736</v>
+        <v>382.2918659143216</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31780,28 +32083,28 @@
         <v>0.0458</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1926420910555617</v>
+        <v>0.1817129980237854</v>
       </c>
       <c r="J13" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K13" t="n">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02403654890255669</v>
+        <v>0.02176807358401589</v>
       </c>
       <c r="M13" t="n">
-        <v>7.329191482309078</v>
+        <v>7.307044607121547</v>
       </c>
       <c r="N13" t="n">
-        <v>84.51915093019483</v>
+        <v>84.07215606116793</v>
       </c>
       <c r="O13" t="n">
-        <v>9.193429769688505</v>
+        <v>9.169086980783197</v>
       </c>
       <c r="P13" t="n">
-        <v>384.6810667653932</v>
+        <v>384.7930600134167</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31858,28 +32161,28 @@
         <v>0.0742</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2987125718915902</v>
+        <v>0.2953161217668333</v>
       </c>
       <c r="J14" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K14" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04805961827919369</v>
+        <v>0.04799393245216765</v>
       </c>
       <c r="M14" t="n">
-        <v>7.559389609373272</v>
+        <v>7.498143064821546</v>
       </c>
       <c r="N14" t="n">
-        <v>103.4970800819647</v>
+        <v>102.3357172284829</v>
       </c>
       <c r="O14" t="n">
-        <v>10.17335146753344</v>
+        <v>10.11611176433332</v>
       </c>
       <c r="P14" t="n">
-        <v>383.3534279471316</v>
+        <v>383.3873590556115</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31917,7 +32220,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O534"/>
+  <dimension ref="A1:O539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68091,6 +68394,387 @@
         </is>
       </c>
     </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>-35.028744168771,173.91635351210175</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>-35.029267676246434,173.91570664677093</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>-35.02986986999798,173.91518371977807</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>-35.03055408325096,173.914807021352</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>-35.03124398696643,173.9144793117527</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>-35.0319159834987,173.91415863541528</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>-35.03263220391092,173.91399848609294</t>
+        </is>
+      </c>
+      <c r="I535" t="inlineStr">
+        <is>
+          <t>-35.03334625822743,173.91377105061744</t>
+        </is>
+      </c>
+      <c r="J535" t="inlineStr">
+        <is>
+          <t>-35.03409210039392,173.91370966937882</t>
+        </is>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>-35.03479432275103,173.9134771678216</t>
+        </is>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>-35.03551684919942,173.91338967747237</t>
+        </is>
+      </c>
+      <c r="M535" t="inlineStr">
+        <is>
+          <t>-35.0362351857196,173.91329653331036</t>
+        </is>
+      </c>
+      <c r="N535" t="inlineStr">
+        <is>
+          <t>-35.03695835543533,173.91333278532466</t>
+        </is>
+      </c>
+      <c r="O535" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>-35.028758889832716,173.91637794394225</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>-35.02933371672316,173.9158162507891</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>-35.02992315921448,173.91527578774154</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>-35.030591870456604,173.91488496181947</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>-35.03123081419894,173.9144450916293</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>-35.03191729721384,173.914163878561</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>-35.03263783713733,173.9140339111763</t>
+        </is>
+      </c>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>-35.033363027216375,173.9138638806575</t>
+        </is>
+      </c>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>-35.03407832936732,173.91364086046164</t>
+        </is>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>-35.034809277412656,173.91357324730643</t>
+        </is>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>-35.0355236508563,173.91345354295177</t>
+        </is>
+      </c>
+      <c r="M536" t="inlineStr">
+        <is>
+          <t>-35.036235812506504,173.91330839719424</t>
+        </is>
+      </c>
+      <c r="N536" t="inlineStr">
+        <is>
+          <t>-35.0369581782802,173.91329718250196</t>
+        </is>
+      </c>
+      <c r="O536" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>-35.02878567545369,173.91642239879747</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>-35.029305417903004,173.91576928463525</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>-35.02993344251077,173.91529355425607</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>-35.030564247342824,173.91482798594575</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>-35.0312437194345,173.91447861675974</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>-35.03190981381161,173.9141340116986</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>-35.03264088112901,173.9140530536386</t>
+        </is>
+      </c>
+      <c r="I537" t="inlineStr">
+        <is>
+          <t>-35.03334711276714,173.91377578118164</t>
+        </is>
+      </c>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>-35.034089396965825,173.9136961612938</t>
+        </is>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>-35.034813619615086,173.91360114483123</t>
+        </is>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>-35.035518937171446,173.9134092828568</t>
+        </is>
+      </c>
+      <c r="M537" t="inlineStr">
+        <is>
+          <t>-35.03623612397292,173.91331429266938</t>
+        </is>
+      </c>
+      <c r="N537" t="inlineStr">
+        <is>
+          <t>-35.036958519028104,173.91336566438798</t>
+        </is>
+      </c>
+      <c r="O537" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>-35.028733390575724,173.91633562405858</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>-35.02929953908717,173.91575952786297</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>-35.029859478191405,173.9151657658463</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>-35.03057212222225,173.91484422878764</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>-35.031210774757156,173.91439303337717</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>-35.03190441562983,173.91411246714105</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>-35.032631414182596,173.91399351981642</t>
+        </is>
+      </c>
+      <c r="I538" t="inlineStr">
+        <is>
+          <t>-35.0333482644613,173.9137821567365</t>
+        </is>
+      </c>
+      <c r="J538" t="inlineStr">
+        <is>
+          <t>-35.03406770747198,173.91358778678207</t>
+        </is>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>-35.0348009450602,173.91351971422614</t>
+        </is>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>-35.035516212386604,173.91338369801147</t>
+        </is>
+      </c>
+      <c r="M538" t="inlineStr">
+        <is>
+          <t>-35.03623364250876,173.91326732335924</t>
+        </is>
+      </c>
+      <c r="N538" t="inlineStr">
+        <is>
+          <t>-35.03695835875008,173.91333345150727</t>
+        </is>
+      </c>
+      <c r="O538" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr"/>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>-35.02930752551452,173.91577278253177</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>-35.03004931337545,173.91549374569146</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>-35.03073477766283,173.9151797260066</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>-35.03120984476344,173.91439061745126</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>-35.03187263793612,173.91398564029717</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>-35.03260971735602,173.91385707793958</t>
+        </is>
+      </c>
+      <c r="I539" t="inlineStr">
+        <is>
+          <t>-35.033319784987604,173.91362450050977</t>
+        </is>
+      </c>
+      <c r="J539" t="inlineStr">
+        <is>
+          <t>-35.03405904288721,173.91354449315543</t>
+        </is>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>-35.034787331588056,173.91343225175103</t>
+        </is>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>-35.03549832232843,173.91321571747514</t>
+        </is>
+      </c>
+      <c r="M539" t="inlineStr">
+        <is>
+          <t>-35.03622893127302,173.91317814974815</t>
+        </is>
+      </c>
+      <c r="N539" t="inlineStr">
+        <is>
+          <t>-35.03695799339328,173.91326002806395</t>
+        </is>
+      </c>
+      <c r="O539" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0053/nzd0053.xlsx
+++ b/data/nzd0053/nzd0053.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O539"/>
+  <dimension ref="A1:O540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25430,7 +25430,9 @@
           <t>2025-08-17 22:11:30+00:00</t>
         </is>
       </c>
-      <c r="B539" t="inlineStr"/>
+      <c r="B539" t="n">
+        <v>394.9085714285715</v>
+      </c>
       <c r="C539" t="n">
         <v>350.5011111111111</v>
       </c>
@@ -25468,6 +25470,53 @@
         <v>384.3069230769231</v>
       </c>
       <c r="O539" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>367.8957142857143</v>
+      </c>
+      <c r="C540" t="n">
+        <v>347.3333333333333</v>
+      </c>
+      <c r="D540" t="n">
+        <v>349.5518181818182</v>
+      </c>
+      <c r="E540" t="n">
+        <v>359.86</v>
+      </c>
+      <c r="F540" t="inlineStr"/>
+      <c r="G540" t="inlineStr"/>
+      <c r="H540" t="n">
+        <v>358.5528571428572</v>
+      </c>
+      <c r="I540" t="n">
+        <v>351.3518181818182</v>
+      </c>
+      <c r="J540" t="n">
+        <v>358.7118181818182</v>
+      </c>
+      <c r="K540" t="n">
+        <v>377.85</v>
+      </c>
+      <c r="L540" t="n">
+        <v>390.9133333333333</v>
+      </c>
+      <c r="M540" t="n">
+        <v>393.4633333333333</v>
+      </c>
+      <c r="N540" t="n">
+        <v>387.98</v>
+      </c>
+      <c r="O540" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -25484,7 +25533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B556"/>
+  <dimension ref="A1:B557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31052,6 +31101,16 @@
       </c>
       <c r="B556" t="n">
         <v>-0.58</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -31225,28 +31284,28 @@
         <v>0.0359</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2001944870754549</v>
+        <v>-0.1868493585361626</v>
       </c>
       <c r="J2" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K2" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0182302407506002</v>
+        <v>0.0158022306520027</v>
       </c>
       <c r="M2" t="n">
-        <v>8.706323654146095</v>
+        <v>8.739453295954252</v>
       </c>
       <c r="N2" t="n">
-        <v>124.468350410952</v>
+        <v>125.9169275074194</v>
       </c>
       <c r="O2" t="n">
-        <v>11.1565384600669</v>
+        <v>11.22127120728393</v>
       </c>
       <c r="P2" t="n">
-        <v>370.4675829658582</v>
+        <v>370.333614219814</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31303,28 +31362,28 @@
         <v>0.0459</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05231338198565435</v>
+        <v>0.04892952727810063</v>
       </c>
       <c r="J3" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K3" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001492532872082841</v>
+        <v>0.001309818345972102</v>
       </c>
       <c r="M3" t="n">
-        <v>7.80252133985976</v>
+        <v>7.802988325585309</v>
       </c>
       <c r="N3" t="n">
-        <v>104.4031591124798</v>
+        <v>104.3127186023546</v>
       </c>
       <c r="O3" t="n">
-        <v>10.21778640961338</v>
+        <v>10.21335980969801</v>
       </c>
       <c r="P3" t="n">
-        <v>354.0493634287665</v>
+        <v>354.0838346748881</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31381,28 +31440,28 @@
         <v>0.0615</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2277962381002633</v>
+        <v>0.2243982468314503</v>
       </c>
       <c r="J4" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K4" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02915593278156881</v>
+        <v>0.02839464366838318</v>
       </c>
       <c r="M4" t="n">
-        <v>7.490471946203755</v>
+        <v>7.490131516856049</v>
       </c>
       <c r="N4" t="n">
-        <v>97.1978768159584</v>
+        <v>97.13201866242518</v>
       </c>
       <c r="O4" t="n">
-        <v>9.858898357116701</v>
+        <v>9.855557755014436</v>
       </c>
       <c r="P4" t="n">
-        <v>351.8430708050647</v>
+        <v>351.8778482437198</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31459,28 +31518,28 @@
         <v>0.0664</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2952826580139621</v>
+        <v>0.2932342901076974</v>
       </c>
       <c r="J5" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K5" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0555078487761399</v>
+        <v>0.05497315980371886</v>
       </c>
       <c r="M5" t="n">
-        <v>7.044286291886469</v>
+        <v>7.039630395488095</v>
       </c>
       <c r="N5" t="n">
-        <v>85.30491648694003</v>
+        <v>85.17436163131637</v>
       </c>
       <c r="O5" t="n">
-        <v>9.236066072031969</v>
+        <v>9.228995700037808</v>
       </c>
       <c r="P5" t="n">
-        <v>357.2180232839685</v>
+        <v>357.2385864325794</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31540,7 +31599,7 @@
         <v>0.2527061172956144</v>
       </c>
       <c r="J6" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K6" t="n">
         <v>458</v>
@@ -31618,7 +31677,7 @@
         <v>0.1972064191129318</v>
       </c>
       <c r="J7" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K7" t="n">
         <v>459</v>
@@ -31693,28 +31752,28 @@
         <v>0.0736</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2371318186915076</v>
+        <v>0.2318796332852445</v>
       </c>
       <c r="J8" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K8" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03765833518176964</v>
+        <v>0.0360643873229326</v>
       </c>
       <c r="M8" t="n">
-        <v>6.630335031455732</v>
+        <v>6.643611350053926</v>
       </c>
       <c r="N8" t="n">
-        <v>81.82802643381663</v>
+        <v>82.01388215678624</v>
       </c>
       <c r="O8" t="n">
-        <v>9.045884502568924</v>
+        <v>9.056151619578056</v>
       </c>
       <c r="P8" t="n">
-        <v>365.3535522235442</v>
+        <v>365.4065745751662</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31771,28 +31830,28 @@
         <v>0.0569</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2401834816836256</v>
+        <v>0.2311432593021472</v>
       </c>
       <c r="J9" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K9" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03967793186449142</v>
+        <v>0.03652733843312683</v>
       </c>
       <c r="M9" t="n">
-        <v>6.86604894232663</v>
+        <v>6.905746468034877</v>
       </c>
       <c r="N9" t="n">
-        <v>79.81936739477327</v>
+        <v>80.73336979021272</v>
       </c>
       <c r="O9" t="n">
-        <v>8.934168534047993</v>
+        <v>8.98517500053353</v>
       </c>
       <c r="P9" t="n">
-        <v>367.4791120810751</v>
+        <v>367.5704938111513</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31849,28 +31908,28 @@
         <v>0.0579</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2275673805932436</v>
+        <v>0.2180204012230063</v>
       </c>
       <c r="J10" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K10" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03819809354107007</v>
+        <v>0.03477539708057265</v>
       </c>
       <c r="M10" t="n">
-        <v>6.56762048452099</v>
+        <v>6.605276315219081</v>
       </c>
       <c r="N10" t="n">
-        <v>73.80017348784369</v>
+        <v>74.82368893276131</v>
       </c>
       <c r="O10" t="n">
-        <v>8.590702735390376</v>
+        <v>8.650068724164063</v>
       </c>
       <c r="P10" t="n">
-        <v>375.7628207502176</v>
+        <v>375.8607917273209</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31927,28 +31986,28 @@
         <v>0.0548</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1909321976296496</v>
+        <v>0.1866559512450529</v>
       </c>
       <c r="J11" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K11" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02912161236745314</v>
+        <v>0.02788861332492198</v>
       </c>
       <c r="M11" t="n">
-        <v>6.459535355516388</v>
+        <v>6.469872953149453</v>
       </c>
       <c r="N11" t="n">
-        <v>68.39776077836137</v>
+        <v>68.48560339887905</v>
       </c>
       <c r="O11" t="n">
-        <v>8.270293874969703</v>
+        <v>8.275602902440344</v>
       </c>
       <c r="P11" t="n">
-        <v>383.2835530188913</v>
+        <v>383.3275520212855</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32005,28 +32064,28 @@
         <v>0.0504</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1966879544026434</v>
+        <v>0.1981315935057157</v>
       </c>
       <c r="J12" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K12" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02604668961348311</v>
+        <v>0.02652226254326495</v>
       </c>
       <c r="M12" t="n">
-        <v>6.844313544418191</v>
+        <v>6.836110534681277</v>
       </c>
       <c r="N12" t="n">
-        <v>81.03990306325559</v>
+        <v>80.88457678650498</v>
       </c>
       <c r="O12" t="n">
-        <v>9.00221656389445</v>
+        <v>8.993585313238819</v>
       </c>
       <c r="P12" t="n">
-        <v>382.2918659143216</v>
+        <v>382.2769269085853</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32083,28 +32142,28 @@
         <v>0.0458</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1817129980237854</v>
+        <v>0.1833861651759198</v>
       </c>
       <c r="J13" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K13" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02176807358401589</v>
+        <v>0.02224787286749408</v>
       </c>
       <c r="M13" t="n">
-        <v>7.307044607121547</v>
+        <v>7.298261126049521</v>
       </c>
       <c r="N13" t="n">
-        <v>84.07215606116793</v>
+        <v>83.90998209202536</v>
       </c>
       <c r="O13" t="n">
-        <v>9.169086980783197</v>
+        <v>9.160239194039933</v>
       </c>
       <c r="P13" t="n">
-        <v>384.7930600134167</v>
+        <v>384.7758006170569</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32161,28 +32220,28 @@
         <v>0.0742</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2953161217668333</v>
+        <v>0.2939272883591914</v>
       </c>
       <c r="J14" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K14" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04799393245216765</v>
+        <v>0.04776327709719819</v>
       </c>
       <c r="M14" t="n">
-        <v>7.498143064821546</v>
+        <v>7.487561570243103</v>
       </c>
       <c r="N14" t="n">
-        <v>102.3357172284829</v>
+        <v>102.0980599776062</v>
       </c>
       <c r="O14" t="n">
-        <v>10.11611176433332</v>
+        <v>10.10435846442545</v>
       </c>
       <c r="P14" t="n">
-        <v>383.3873590556115</v>
+        <v>383.4013217620479</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32220,7 +32279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O539"/>
+  <dimension ref="A1:O540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68708,7 +68767,11 @@
           <t>2025-08-17 22:11:30+00:00</t>
         </is>
       </c>
-      <c r="B539" t="inlineStr"/>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>-35.028953635146934,173.91670115502026</t>
+        </is>
+      </c>
       <c r="C539" t="inlineStr">
         <is>
           <t>-35.02930752551452,173.91577278253177</t>
@@ -68770,6 +68833,75 @@
         </is>
       </c>
       <c r="O539" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>-35.02880970561992,173.91646228060029</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>-35.02929064685865,173.9157447698878</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>-35.029894828247606,173.91522684020188</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>-35.030555609391115,173.91481016918857</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr"/>
+      <c r="G540" t="inlineStr"/>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>-35.03260795206763,173.91384597685683</t>
+        </is>
+      </c>
+      <c r="I540" t="inlineStr">
+        <is>
+          <t>-35.03331372579773,173.91359095830208</t>
+        </is>
+      </c>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>-35.034040597405166,173.91345232840322</t>
+        </is>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>-35.03478848840036,173.9134396839061</t>
+        </is>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>-35.03552393645568,173.9134562246498</t>
+        </is>
+      </c>
+      <c r="M540" t="inlineStr">
+        <is>
+          <t>-35.03623910504525,173.91337071905394</t>
+        </is>
+      </c>
+      <c r="N540" t="inlineStr">
+        <is>
+          <t>-35.036958193763844,173.91330029416505</t>
+        </is>
+      </c>
+      <c r="O540" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0053/nzd0053.xlsx
+++ b/data/nzd0053/nzd0053.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O540"/>
+  <dimension ref="A1:O541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25522,6 +25522,57 @@
         </is>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>377.1985714285714</v>
+      </c>
+      <c r="C541" t="n">
+        <v>357.1577777777778</v>
+      </c>
+      <c r="D541" t="n">
+        <v>365.0718181818182</v>
+      </c>
+      <c r="E541" t="n">
+        <v>365.8433333333333</v>
+      </c>
+      <c r="F541" t="n">
+        <v>375.1033333333333</v>
+      </c>
+      <c r="G541" t="n">
+        <v>381.2718181818182</v>
+      </c>
+      <c r="H541" t="n">
+        <v>373.6142857142857</v>
+      </c>
+      <c r="I541" t="n">
+        <v>386.1818181818182</v>
+      </c>
+      <c r="J541" t="n">
+        <v>384.4318181818182</v>
+      </c>
+      <c r="K541" t="n">
+        <v>398.93</v>
+      </c>
+      <c r="L541" t="n">
+        <v>399.0877777777778</v>
+      </c>
+      <c r="M541" t="n">
+        <v>401.4877777777778</v>
+      </c>
+      <c r="N541" t="n">
+        <v>371.7023076923077</v>
+      </c>
+      <c r="O541" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25533,7 +25584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B557"/>
+  <dimension ref="A1:B558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31111,6 +31162,16 @@
       </c>
       <c r="B557" t="n">
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>
@@ -32279,7 +32340,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O540"/>
+  <dimension ref="A1:O541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68907,6 +68968,83 @@
         </is>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>-35.028859273027955,173.91654454557704</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>-35.02934299375905,173.9158316474411</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>-35.02997535870809,173.91536597322298</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>-35.030583003592675,173.91486667287467</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>-35.03126958083564,173.9145457994315</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>-35.031941364434594,173.9142599330194</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>-35.03263372957743,173.91400808038586</t>
+        </is>
+      </c>
+      <c r="I541" t="inlineStr">
+        <is>
+          <t>-35.03338109199854,173.9139638844553</t>
+        </is>
+      </c>
+      <c r="J541" t="inlineStr">
+        <is>
+          <t>-35.03409542589909,173.913726285777</t>
+        </is>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>-35.034823829633154,173.913666741725</t>
+        </is>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>-35.0355334010825,173.91354509516643</t>
+        </is>
+      </c>
+      <c r="M541" t="inlineStr">
+        <is>
+          <t>-35.03624374293012,173.91345850694316</t>
+        </is>
+      </c>
+      <c r="N541" t="inlineStr">
+        <is>
+          <t>-35.03695730569534,173.91312184998304</t>
+        </is>
+      </c>
+      <c r="O541" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0053/nzd0053.xlsx
+++ b/data/nzd0053/nzd0053.xlsx
@@ -31345,28 +31345,28 @@
         <v>0.0359</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1868493585361626</v>
+        <v>-0.1819609670935181</v>
       </c>
       <c r="J2" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K2" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0158022306520027</v>
+        <v>0.01502648817323871</v>
       </c>
       <c r="M2" t="n">
-        <v>8.739453295954252</v>
+        <v>8.746181609070652</v>
       </c>
       <c r="N2" t="n">
-        <v>125.9169275074194</v>
+        <v>125.9427483842645</v>
       </c>
       <c r="O2" t="n">
-        <v>11.22127120728393</v>
+        <v>11.22242168091471</v>
       </c>
       <c r="P2" t="n">
-        <v>370.333614219814</v>
+        <v>370.2841751134964</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31423,28 +31423,28 @@
         <v>0.0459</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04892952727810063</v>
+        <v>0.04967893980041802</v>
       </c>
       <c r="J3" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K3" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001309818345972102</v>
+        <v>0.001356037685907974</v>
       </c>
       <c r="M3" t="n">
-        <v>7.802988325585309</v>
+        <v>7.789281382460602</v>
       </c>
       <c r="N3" t="n">
-        <v>104.3127186023546</v>
+        <v>104.0818635836973</v>
       </c>
       <c r="O3" t="n">
-        <v>10.21335980969801</v>
+        <v>10.20205193006276</v>
       </c>
       <c r="P3" t="n">
-        <v>354.0838346748881</v>
+        <v>354.0761833395586</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31501,28 +31501,28 @@
         <v>0.0615</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2243982468314503</v>
+        <v>0.2274123945065556</v>
       </c>
       <c r="J4" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K4" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02839464366838318</v>
+        <v>0.02922910198475548</v>
       </c>
       <c r="M4" t="n">
-        <v>7.490131516856049</v>
+        <v>7.491416567993453</v>
       </c>
       <c r="N4" t="n">
-        <v>97.13201866242518</v>
+        <v>97.03528628217958</v>
       </c>
       <c r="O4" t="n">
-        <v>9.855557755014436</v>
+        <v>9.850649028474194</v>
       </c>
       <c r="P4" t="n">
-        <v>351.8778482437198</v>
+        <v>351.8469322187535</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31579,28 +31579,28 @@
         <v>0.0664</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2932342901076974</v>
+        <v>0.2936117794396145</v>
       </c>
       <c r="J5" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K5" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05497315980371886</v>
+        <v>0.0553316620108063</v>
       </c>
       <c r="M5" t="n">
-        <v>7.039630395488095</v>
+        <v>7.026382252406171</v>
       </c>
       <c r="N5" t="n">
-        <v>85.17436163131637</v>
+        <v>84.99069329177375</v>
       </c>
       <c r="O5" t="n">
-        <v>9.228995700037808</v>
+        <v>9.219039716357326</v>
       </c>
       <c r="P5" t="n">
-        <v>357.2385864325794</v>
+        <v>357.2347885557134</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31657,28 +31657,28 @@
         <v>0.0624</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2527061172956144</v>
+        <v>0.2552663225889793</v>
       </c>
       <c r="J6" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K6" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04221021809043013</v>
+        <v>0.04316771511562245</v>
       </c>
       <c r="M6" t="n">
-        <v>7.068771979399336</v>
+        <v>7.067482859661634</v>
       </c>
       <c r="N6" t="n">
-        <v>84.32966414225614</v>
+        <v>84.23425112870216</v>
       </c>
       <c r="O6" t="n">
-        <v>9.183118432333112</v>
+        <v>9.177921939562472</v>
       </c>
       <c r="P6" t="n">
-        <v>362.1071312977784</v>
+        <v>362.0815630246712</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31735,28 +31735,28 @@
         <v>0.0571</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1972064191129318</v>
+        <v>0.199774848503893</v>
       </c>
       <c r="J7" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K7" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02738670572391066</v>
+        <v>0.02817240789691278</v>
       </c>
       <c r="M7" t="n">
-        <v>6.835837837554889</v>
+        <v>6.835416596846361</v>
       </c>
       <c r="N7" t="n">
-        <v>79.79490649982553</v>
+        <v>79.709645948787</v>
       </c>
       <c r="O7" t="n">
-        <v>8.932799477197813</v>
+        <v>8.92802587075032</v>
       </c>
       <c r="P7" t="n">
-        <v>369.7239043808734</v>
+        <v>369.6981201683145</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31813,28 +31813,28 @@
         <v>0.0736</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2318796332852445</v>
+        <v>0.2327441639815624</v>
       </c>
       <c r="J8" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K8" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0360643873229326</v>
+        <v>0.03647151545653271</v>
       </c>
       <c r="M8" t="n">
-        <v>6.643611350053926</v>
+        <v>6.633899548784227</v>
       </c>
       <c r="N8" t="n">
-        <v>82.01388215678624</v>
+        <v>81.84660667174188</v>
       </c>
       <c r="O8" t="n">
-        <v>9.056151619578056</v>
+        <v>9.046911443787979</v>
       </c>
       <c r="P8" t="n">
-        <v>365.4065745751662</v>
+        <v>365.3978279386926</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31891,28 +31891,28 @@
         <v>0.0569</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2311432593021472</v>
+        <v>0.2362034226433158</v>
       </c>
       <c r="J9" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K9" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03652733843312683</v>
+        <v>0.0380846629935977</v>
       </c>
       <c r="M9" t="n">
-        <v>6.905746468034877</v>
+        <v>6.914466329745657</v>
       </c>
       <c r="N9" t="n">
-        <v>80.73336979021272</v>
+        <v>80.89930488871688</v>
       </c>
       <c r="O9" t="n">
-        <v>8.98517500053353</v>
+        <v>8.994404087471104</v>
       </c>
       <c r="P9" t="n">
-        <v>367.5704938111513</v>
+        <v>367.519231147973</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31969,28 +31969,28 @@
         <v>0.0579</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2180204012230063</v>
+        <v>0.2192089929551095</v>
       </c>
       <c r="J10" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K10" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03477539708057265</v>
+        <v>0.03528089856483296</v>
       </c>
       <c r="M10" t="n">
-        <v>6.605276315219081</v>
+        <v>6.596688591450734</v>
       </c>
       <c r="N10" t="n">
-        <v>74.82368893276131</v>
+        <v>74.672909446959</v>
       </c>
       <c r="O10" t="n">
-        <v>8.650068724164063</v>
+        <v>8.641348821044026</v>
       </c>
       <c r="P10" t="n">
-        <v>375.8607917273209</v>
+        <v>375.8485671496484</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32047,28 +32047,28 @@
         <v>0.0548</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1866559512450529</v>
+        <v>0.1910462802264973</v>
       </c>
       <c r="J11" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K11" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02788861332492198</v>
+        <v>0.02919357504656483</v>
       </c>
       <c r="M11" t="n">
-        <v>6.469872953149453</v>
+        <v>6.477612393971771</v>
       </c>
       <c r="N11" t="n">
-        <v>68.48560339887905</v>
+        <v>68.58717967800484</v>
       </c>
       <c r="O11" t="n">
-        <v>8.275602902440344</v>
+        <v>8.2817377209137</v>
       </c>
       <c r="P11" t="n">
-        <v>383.3275520212855</v>
+        <v>383.2822792133204</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32125,28 +32125,28 @@
         <v>0.0504</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1981315935057157</v>
+        <v>0.2029360670818073</v>
       </c>
       <c r="J12" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K12" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02652226254326495</v>
+        <v>0.02780300291121096</v>
       </c>
       <c r="M12" t="n">
-        <v>6.836110534681277</v>
+        <v>6.84483786291206</v>
       </c>
       <c r="N12" t="n">
-        <v>80.88457678650498</v>
+        <v>81.00474502005505</v>
       </c>
       <c r="O12" t="n">
-        <v>8.993585313238819</v>
+        <v>9.00026360836476</v>
       </c>
       <c r="P12" t="n">
-        <v>382.2769269085853</v>
+        <v>382.2270990122453</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32203,28 +32203,28 @@
         <v>0.0458</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1833861651759198</v>
+        <v>0.1884518024686407</v>
       </c>
       <c r="J13" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K13" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02224787286749408</v>
+        <v>0.02347462710927772</v>
       </c>
       <c r="M13" t="n">
-        <v>7.298261126049521</v>
+        <v>7.306982529479833</v>
       </c>
       <c r="N13" t="n">
-        <v>83.90998209202536</v>
+        <v>84.04440152237531</v>
       </c>
       <c r="O13" t="n">
-        <v>9.160239194039933</v>
+        <v>9.167573371529421</v>
       </c>
       <c r="P13" t="n">
-        <v>384.7758006170569</v>
+        <v>384.72342731661</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32281,28 +32281,28 @@
         <v>0.0742</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2939272883591914</v>
+        <v>0.2853162342103912</v>
       </c>
       <c r="J14" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K14" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04776327709719819</v>
+        <v>0.04492706113709521</v>
       </c>
       <c r="M14" t="n">
-        <v>7.487561570243103</v>
+        <v>7.522672621172198</v>
       </c>
       <c r="N14" t="n">
-        <v>102.0980599776062</v>
+        <v>102.7912246076248</v>
       </c>
       <c r="O14" t="n">
-        <v>10.10435846442545</v>
+        <v>10.13860072236918</v>
       </c>
       <c r="P14" t="n">
-        <v>383.4013217620479</v>
+        <v>383.4881033425712</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">

--- a/data/nzd0053/nzd0053.xlsx
+++ b/data/nzd0053/nzd0053.xlsx
@@ -31336,13 +31336,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0337</v>
+        <v>0.0331</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0359</v>
+        <v>0.0517</v>
       </c>
       <c r="I2" t="n">
         <v>-0.1819486994399242</v>
@@ -31414,13 +31414,13 @@
         <v>0.08341068351383005</v>
       </c>
       <c r="F3" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0397</v>
+        <v>0.0535</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0459</v>
+        <v>0.0704</v>
       </c>
       <c r="I3" t="n">
         <v>0.04967156732592092</v>
@@ -31492,13 +31492,13 @@
         <v>0.1668213670273483</v>
       </c>
       <c r="F4" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.053</v>
+        <v>0.0622</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0615</v>
+        <v>0.0781</v>
       </c>
       <c r="I4" t="n">
         <v>0.2274012601823015</v>
@@ -31570,13 +31570,13 @@
         <v>0.2500364563480296</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0563</v>
+        <v>0.0876</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0664</v>
+        <v>0.1158</v>
       </c>
       <c r="I5" t="n">
         <v>0.2935856174051046</v>
@@ -31648,13 +31648,13 @@
         <v>0.3334471398609662</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0537</v>
+        <v>0.0722</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0624</v>
+        <v>0.0862</v>
       </c>
       <c r="I6" t="n">
         <v>0.255248761531648</v>
@@ -31726,13 +31726,13 @@
         <v>0.4162504774845963</v>
       </c>
       <c r="F7" t="n">
-        <v>0.055</v>
+        <v>0.075</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0497</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0571</v>
+        <v>0.07969999999999999</v>
       </c>
       <c r="I7" t="n">
         <v>0.1997744031932094</v>
@@ -31804,13 +31804,13 @@
         <v>0.4996611609980369</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06279999999999999</v>
+        <v>0.0617</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0736</v>
+        <v>0.0706</v>
       </c>
       <c r="I8" t="n">
         <v>0.232716522851667</v>
@@ -31882,13 +31882,13 @@
         <v>0.5830616150707211</v>
       </c>
       <c r="F9" t="n">
-        <v>0.055</v>
+        <v>0.075</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0519</v>
+        <v>0.068</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0569</v>
+        <v>0.0832</v>
       </c>
       <c r="I9" t="n">
         <v>0.2362041240264477</v>
@@ -31960,13 +31960,13 @@
         <v>0.6664722985854368</v>
       </c>
       <c r="F10" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0522</v>
+        <v>0.0564</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0579</v>
+        <v>0.0774</v>
       </c>
       <c r="I10" t="n">
         <v>0.2192038040035975</v>
@@ -32038,13 +32038,13 @@
         <v>0.7498829820986451</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0494</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0548</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="I11" t="n">
         <v>0.1910462802264972</v>
@@ -32116,13 +32116,13 @@
         <v>0.8332368444895984</v>
       </c>
       <c r="F12" t="n">
-        <v>0.045</v>
+        <v>0.075</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0437</v>
+        <v>0.0641</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0504</v>
+        <v>0.0896</v>
       </c>
       <c r="I12" t="n">
         <v>0.2029331246341109</v>
@@ -32194,13 +32194,13 @@
         <v>0.9166475280035903</v>
       </c>
       <c r="F13" t="n">
-        <v>0.045</v>
+        <v>0.065</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0414</v>
+        <v>0.0581</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0458</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="I13" t="n">
         <v>0.188452016722578</v>
@@ -32272,13 +32272,13 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.065</v>
+        <v>0.055</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0589</v>
+        <v>0.0488</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0742</v>
+        <v>0.0618</v>
       </c>
       <c r="I14" t="n">
         <v>0.2853223377266789</v>

--- a/data/nzd0053/nzd0053.xlsx
+++ b/data/nzd0053/nzd0053.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O545"/>
+  <dimension ref="A1:O547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28246,6 +28246,108 @@
         <v>393.06</v>
       </c>
       <c r="O545" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>362.04</v>
+      </c>
+      <c r="C546" t="n">
+        <v>352.28</v>
+      </c>
+      <c r="D546" t="n">
+        <v>354.9</v>
+      </c>
+      <c r="E546" t="n">
+        <v>362.92</v>
+      </c>
+      <c r="F546" t="n">
+        <v>366.54</v>
+      </c>
+      <c r="G546" t="n">
+        <v>371.18</v>
+      </c>
+      <c r="H546" t="n">
+        <v>370.31</v>
+      </c>
+      <c r="I546" t="n">
+        <v>370.38</v>
+      </c>
+      <c r="J546" t="n">
+        <v>378.1</v>
+      </c>
+      <c r="K546" t="n">
+        <v>386.91</v>
+      </c>
+      <c r="L546" t="n">
+        <v>388.43</v>
+      </c>
+      <c r="M546" t="n">
+        <v>387.97</v>
+      </c>
+      <c r="N546" t="n">
+        <v>392.87</v>
+      </c>
+      <c r="O546" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>361.68</v>
+      </c>
+      <c r="C547" t="n">
+        <v>351.24</v>
+      </c>
+      <c r="D547" t="n">
+        <v>354.41</v>
+      </c>
+      <c r="E547" t="n">
+        <v>363.07</v>
+      </c>
+      <c r="F547" t="n">
+        <v>365.87</v>
+      </c>
+      <c r="G547" t="n">
+        <v>370.72</v>
+      </c>
+      <c r="H547" t="n">
+        <v>370.27</v>
+      </c>
+      <c r="I547" t="n">
+        <v>370.41</v>
+      </c>
+      <c r="J547" t="n">
+        <v>378.24</v>
+      </c>
+      <c r="K547" t="n">
+        <v>387.02</v>
+      </c>
+      <c r="L547" t="n">
+        <v>388.16</v>
+      </c>
+      <c r="M547" t="n">
+        <v>388.97</v>
+      </c>
+      <c r="N547" t="n">
+        <v>392.02</v>
+      </c>
+      <c r="O547" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -28262,7 +28364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B562"/>
+  <dimension ref="A1:B564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33890,6 +33992,26 @@
       </c>
       <c r="B562" t="n">
         <v>-0.12</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>
@@ -34063,28 +34185,28 @@
         <v>0.0515</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2284990583875875</v>
+        <v>-0.2305130249318656</v>
       </c>
       <c r="J2" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K2" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05071205913825849</v>
+        <v>0.05192146863826286</v>
       </c>
       <c r="M2" t="n">
-        <v>5.487613769715956</v>
+        <v>5.474345470182268</v>
       </c>
       <c r="N2" t="n">
-        <v>54.92642936256923</v>
+        <v>54.75446823136905</v>
       </c>
       <c r="O2" t="n">
-        <v>7.411236695894231</v>
+        <v>7.399626222409417</v>
       </c>
       <c r="P2" t="n">
-        <v>370.6942944420974</v>
+        <v>370.7147670489543</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34135,34 +34257,34 @@
         <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0535</v>
+        <v>0.0536</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0701</v>
+        <v>0.0703</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0766101526701537</v>
+        <v>0.07418007414924263</v>
       </c>
       <c r="J3" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K3" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009872714693038409</v>
+        <v>0.009321974767073304</v>
       </c>
       <c r="M3" t="n">
-        <v>4.74510002933143</v>
+        <v>4.737275912108652</v>
       </c>
       <c r="N3" t="n">
-        <v>33.07904149757339</v>
+        <v>33.00125187032121</v>
       </c>
       <c r="O3" t="n">
-        <v>5.751438211227987</v>
+        <v>5.744671606830211</v>
       </c>
       <c r="P3" t="n">
-        <v>353.1661240713087</v>
+        <v>353.1908287215088</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34213,34 +34335,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.062</v>
+        <v>0.0622</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07779999999999999</v>
+        <v>0.0779</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2341397928462301</v>
+        <v>0.2321349728575008</v>
       </c>
       <c r="J4" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K4" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1009038098841836</v>
+        <v>0.09996111466083324</v>
       </c>
       <c r="M4" t="n">
-        <v>4.146280233777255</v>
+        <v>4.13734988325115</v>
       </c>
       <c r="N4" t="n">
-        <v>27.45205572314275</v>
+        <v>27.38057818877394</v>
       </c>
       <c r="O4" t="n">
-        <v>5.239470939240215</v>
+        <v>5.232645429299977</v>
       </c>
       <c r="P4" t="n">
-        <v>351.3276741587783</v>
+        <v>351.348054291374</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34291,34 +34413,34 @@
         <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08740000000000001</v>
+        <v>0.0876</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1155</v>
+        <v>0.1156</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2758284992622748</v>
+        <v>0.2751566985544267</v>
       </c>
       <c r="J5" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K5" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1459807072494328</v>
+        <v>0.1463325154963901</v>
       </c>
       <c r="M5" t="n">
-        <v>3.688556379438216</v>
+        <v>3.677754950730549</v>
       </c>
       <c r="N5" t="n">
-        <v>25.01360633721772</v>
+        <v>24.92524083079167</v>
       </c>
       <c r="O5" t="n">
-        <v>5.001360448639722</v>
+        <v>4.992518485773656</v>
       </c>
       <c r="P5" t="n">
-        <v>356.6964422787192</v>
+        <v>356.7032704742928</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34375,28 +34497,28 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2302863331207246</v>
+        <v>0.2291758237603278</v>
       </c>
       <c r="J6" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K6" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07816684995035605</v>
+        <v>0.07801524790910008</v>
       </c>
       <c r="M6" t="n">
-        <v>4.287699232096128</v>
+        <v>4.277031830548655</v>
       </c>
       <c r="N6" t="n">
-        <v>35.14729118480847</v>
+        <v>35.02782164732537</v>
       </c>
       <c r="O6" t="n">
-        <v>5.928515091050074</v>
+        <v>5.918430674370138</v>
       </c>
       <c r="P6" t="n">
-        <v>361.723522031268</v>
+        <v>361.734812393058</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34447,34 +34569,34 @@
         <v>0.075</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0689</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0.07969999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.201238539240965</v>
+        <v>0.1989048965465915</v>
       </c>
       <c r="J7" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K7" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0840341080213215</v>
+        <v>0.08272756150138816</v>
       </c>
       <c r="M7" t="n">
-        <v>3.80823980948201</v>
+        <v>3.803882482942422</v>
       </c>
       <c r="N7" t="n">
-        <v>24.84918478009168</v>
+        <v>24.79738336481439</v>
       </c>
       <c r="O7" t="n">
-        <v>4.984895663912303</v>
+        <v>4.979697115770636</v>
       </c>
       <c r="P7" t="n">
-        <v>368.9519503972581</v>
+        <v>368.9756571052188</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34525,34 +34647,34 @@
         <v>0.065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0617</v>
+        <v>0.0616</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07049999999999999</v>
+        <v>0.0704</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2277075713909787</v>
+        <v>0.226934591981556</v>
       </c>
       <c r="J8" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K8" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09622605615334345</v>
+        <v>0.09630163474979869</v>
       </c>
       <c r="M8" t="n">
-        <v>3.788705469917182</v>
+        <v>3.778054310942846</v>
       </c>
       <c r="N8" t="n">
-        <v>27.36830441543765</v>
+        <v>27.27234744894394</v>
       </c>
       <c r="O8" t="n">
-        <v>5.231472490173073</v>
+        <v>5.222293313185688</v>
       </c>
       <c r="P8" t="n">
-        <v>365.3975247746319</v>
+        <v>365.4053820732072</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34606,31 +34728,31 @@
         <v>0.0679</v>
       </c>
       <c r="H9" t="n">
-        <v>0.083</v>
+        <v>0.0829</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2316510459724018</v>
+        <v>0.2298162761791326</v>
       </c>
       <c r="J9" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K9" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1340062296808615</v>
+        <v>0.1329281903011253</v>
       </c>
       <c r="M9" t="n">
-        <v>3.319419921948358</v>
+        <v>3.31681326783866</v>
       </c>
       <c r="N9" t="n">
-        <v>19.48875652079286</v>
+        <v>19.44154714140826</v>
       </c>
       <c r="O9" t="n">
-        <v>4.41460717627207</v>
+        <v>4.409256982917673</v>
       </c>
       <c r="P9" t="n">
-        <v>366.894825181239</v>
+        <v>366.9134750190601</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34684,31 +34806,31 @@
         <v>0.0563</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0771</v>
+        <v>0.0769</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2033795307875901</v>
+        <v>0.2013166789861505</v>
       </c>
       <c r="J10" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K10" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1098785661939049</v>
+        <v>0.1084982809923037</v>
       </c>
       <c r="M10" t="n">
-        <v>3.376674713010792</v>
+        <v>3.376321515086065</v>
       </c>
       <c r="N10" t="n">
-        <v>18.8311384563585</v>
+        <v>18.79274081820981</v>
       </c>
       <c r="O10" t="n">
-        <v>4.33948596683507</v>
+        <v>4.335059494194954</v>
       </c>
       <c r="P10" t="n">
-        <v>375.734280013553</v>
+        <v>375.7552478638158</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34765,28 +34887,28 @@
         <v>0.0823</v>
       </c>
       <c r="I11" t="n">
-        <v>0.148677465424437</v>
+        <v>0.1486703647164973</v>
       </c>
       <c r="J11" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K11" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07392052918557424</v>
+        <v>0.07445149186195099</v>
       </c>
       <c r="M11" t="n">
-        <v>2.946181799205364</v>
+        <v>2.935589391031227</v>
       </c>
       <c r="N11" t="n">
-        <v>15.5632146266519</v>
+        <v>15.50621766506264</v>
       </c>
       <c r="O11" t="n">
-        <v>3.945024033722976</v>
+        <v>3.937793502084974</v>
       </c>
       <c r="P11" t="n">
-        <v>383.0701059143526</v>
+        <v>383.0701777180597</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34840,31 +34962,31 @@
         <v>0.0638</v>
       </c>
       <c r="H12" t="n">
-        <v>0.089</v>
+        <v>0.0887</v>
       </c>
       <c r="I12" t="n">
-        <v>0.151906052763757</v>
+        <v>0.1536114358257139</v>
       </c>
       <c r="J12" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K12" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06574677129931239</v>
+        <v>0.06755154489273907</v>
       </c>
       <c r="M12" t="n">
-        <v>3.252319379505031</v>
+        <v>3.24926634609937</v>
       </c>
       <c r="N12" t="n">
-        <v>18.42748872472674</v>
+        <v>18.38094886935408</v>
       </c>
       <c r="O12" t="n">
-        <v>4.292725093076278</v>
+        <v>4.28730088393083</v>
       </c>
       <c r="P12" t="n">
-        <v>381.9029707206639</v>
+        <v>381.8856369154124</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34915,34 +35037,34 @@
         <v>0.065</v>
       </c>
       <c r="G13" t="n">
-        <v>0.058</v>
+        <v>0.0579</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0752</v>
+        <v>0.075</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1741937493655742</v>
+        <v>0.1741421184343153</v>
       </c>
       <c r="J13" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K13" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07116291575636235</v>
+        <v>0.07163946521746034</v>
       </c>
       <c r="M13" t="n">
-        <v>3.543436231346553</v>
+        <v>3.53219814904186</v>
       </c>
       <c r="N13" t="n">
-        <v>22.29339661019731</v>
+        <v>22.21250606287841</v>
       </c>
       <c r="O13" t="n">
-        <v>4.721588356707657</v>
+        <v>4.713014540915231</v>
       </c>
       <c r="P13" t="n">
-        <v>383.9699235794242</v>
+        <v>383.9704446879882</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34996,31 +35118,31 @@
         <v>0.0488</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0618</v>
+        <v>0.0617</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2873017406277942</v>
+        <v>0.2882679773591332</v>
       </c>
       <c r="J14" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K14" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1706185338046272</v>
+        <v>0.1726382073238685</v>
       </c>
       <c r="M14" t="n">
-        <v>3.520225527517612</v>
+        <v>3.51196499434249</v>
       </c>
       <c r="N14" t="n">
-        <v>22.55683236748643</v>
+        <v>22.48147109614804</v>
       </c>
       <c r="O14" t="n">
-        <v>4.74940336963354</v>
+        <v>4.741462970028136</v>
       </c>
       <c r="P14" t="n">
-        <v>383.5384857885819</v>
+        <v>383.5286625290746</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35058,7 +35180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O545"/>
+  <dimension ref="A1:O547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77019,6 +77141,160 @@
         </is>
       </c>
     </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>-35.02877850522091,173.91641049868846</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>-35.029317003844824,173.9157885132429</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>-35.02992257901006,173.91527478531907</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>-35.030569619353855,173.91483906633366</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>-35.03123685278022,173.91446077860908</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>-35.03191484892634,173.91415410724412</t>
+        </is>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>-35.03262807433859,173.91397251692666</t>
+        </is>
+      </c>
+      <c r="I546" t="inlineStr">
+        <is>
+          <t>-35.03335052916578,173.91379469370585</t>
+        </is>
+      </c>
+      <c r="J546" t="inlineStr">
+        <is>
+          <t>-35.03408192813221,173.9136588421875</t>
+        </is>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>-35.03480367780619,173.91353727135194</t>
+        </is>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>-35.0355210611619,173.9134292264743</t>
+        </is>
+      </c>
+      <c r="M546" t="inlineStr">
+        <is>
+          <t>-35.03623593002892,173.91331062167248</t>
+        </is>
+      </c>
+      <c r="N546" t="inlineStr">
+        <is>
+          <t>-35.036958460498255,173.91335390078368</t>
+        </is>
+      </c>
+      <c r="O546" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>-35.02877658706926,173.91640731522017</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>-35.029311462485204,173.9157793165244</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>-35.0299200364882,173.91527039258983</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>-35.03057030611654,173.91484048286065</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>-35.031234292116245,173.91445412653508</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>-35.03191364030803,173.91414928355033</t>
+        </is>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>-35.03262800587909,173.9139720864136</t>
+        </is>
+      </c>
+      <c r="I547" t="inlineStr">
+        <is>
+          <t>-35.033350587190036,173.913795014917</t>
+        </is>
+      </c>
+      <c r="J547" t="inlineStr">
+        <is>
+          <t>-35.03408222657572,173.9136603334023</t>
+        </is>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>-35.034803862224535,173.9135384561887</t>
+        </is>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>-35.035520748545714,173.91342629110233</t>
+        </is>
+      </c>
+      <c r="M547" t="inlineStr">
+        <is>
+          <t>-35.03623650800741,173.9133215617295</t>
+        </is>
+      </c>
+      <c r="N547" t="inlineStr">
+        <is>
+          <t>-35.036958414135086,173.9133445826598</t>
+        </is>
+      </c>
+      <c r="O547" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
